--- a/data_Ref/bacteria_corrosion_summary.xlsx
+++ b/data_Ref/bacteria_corrosion_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,110 +464,118 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actinomyces</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Actinomyces[Organism] AND corrosion[Title]: 7 hits; Actinomyces[Organism] AND (metal reduction OR iron reduction): 26 hits; Actinomyces[Organism] AND corrosion: 14 hits; Actinomyces[Organism] AND biocorrosion: 1 hits; Actinomyces[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 156 hits; Actinomyces[Organism] AND 'material deterioration': 1 hits; Actinomyces[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 10 hits; Actinomyces[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 17 hits; Actinomyces[Organism] AND AND biofilm AND (corrosion OR MIC): 41 hits</t>
-        </is>
-      </c>
+          <t>Bulleidia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anaerococcus</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Cellulosimicrobium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Metal Reduction</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Anaerococcus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 7 hits</t>
+          <t>Cellulosimicrobium[Organism] AND (metal reduction OR iron reduction): 4 hits; Cellulosimicrobium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 2 hits</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aquabacter</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>Clavibacter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Metal Reduction</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Clavibacter[Organism] AND corrosion[Title]: 1 hits; Clavibacter[Organism] AND (metal reduction OR iron reduction): 8 hits; Clavibacter[Organism] AND corrosion: 1 hits; Clavibacter[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 13 hits; Clavibacter[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 1 hits</t>
+        </is>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aquabacterium</t>
+          <t>Clostridium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metal Reduction</t>
+          <t>Metal Reduction; Sulfate Reduction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aquabacterium[Organism] AND corrosion[Title]: 1 hits; Aquabacterium[Organism] AND (metal reduction OR iron reduction): 8 hits; Aquabacterium[Organism] AND corrosion: 2 hits; Aquabacterium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 1 hits; Aquabacterium[Organism] AND AND biofilm AND (corrosion OR MIC): 1 hits; Aquabacterium[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
+          <t>Clostridium[Organism] AND corrosion[Title]: 7 hits; Clostridium[Organism] AND biocorrosion[Title]: 1 hits; Clostridium[Organism] AND (metal reduction OR iron reduction): 589 hits; Clostridium[Organism] AND corrosion: 72 hits; Clostridium[Organism] AND biocorrosion: 4 hits; Clostridium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 682 hits; Clostridium[Organism] AND 'material deterioration': 14 hits; Clostridium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 26 hits; Clostridium[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 30 hits; Clostridium[Organism] AND AND biofilm AND (corrosion OR MIC): 27 hits; Clostridium[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 10 hits; Clostridium[Organism] AND (hydrogen sulfide OR H2S) AND (corrosion OR 'metal deterioration')Clostridium[Organism] AND ('sulfate reducing bacteria'[Title/Abstract] AND corrosion): 3 hits</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Atopobium</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Cohnella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Metal Reduction</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atopobium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 9 hits; Atopobium[Organism] AND 'material deterioration': 1 hits; Atopobium[Organism] AND AND biofilm AND (corrosion OR MIC): 2 hits</t>
+          <t>Cohnella[Organism] AND (metal reduction OR iron reduction): 1 hits; Cohnella[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1 hits</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cellulosimicrobium</t>
+          <t>Corynebacterium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -577,43 +585,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cellulosimicrobium[Organism] AND (metal reduction OR iron reduction): 4 hits; Cellulosimicrobium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 2 hits</t>
+          <t>Corynebacterium[Organism] AND (metal reduction OR iron reduction): 66 hits; Corynebacterium[Organism] AND corrosion: 17 hits; Corynebacterium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 195 hits; Corynebacterium[Organism] AND 'material deterioration': 3 hits; Corynebacterium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 3 hits; Corynebacterium[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 13 hits; Corynebacterium[Organism] AND AND biofilm AND (corrosion OR MIC): 13 hits</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clostridium</t>
+          <t>Enterococcus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Metal Reduction; Sulfate Reduction</t>
+          <t>Metal Reduction</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Clostridium[Organism] AND corrosion[Title]: 7 hits; Clostridium[Organism] AND biocorrosion[Title]: 1 hits; Clostridium[Organism] AND (metal reduction OR iron reduction): 589 hits; Clostridium[Organism] AND corrosion: 72 hits; Clostridium[Organism] AND biocorrosion: 4 hits; Clostridium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 682 hits; Clostridium[Organism] AND 'material deterioration': 14 hits; Clostridium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 26 hits; Clostridium[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 30 hits; Clostridium[Organism] AND AND biofilm AND (corrosion OR MIC): 27 hits; Clostridium[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 10 hits; Clostridium[Organism] AND (hydrogen sulfide OR H2S) AND (corrosion OR 'metal deterioration')Clostridium[Organism] AND ('sulfate reducing bacteria'[Title/Abstract] AND corrosion): 3 hits</t>
+          <t>Enterococcus[Organism] AND corrosion[Title]: 5 hits; Enterococcus[Organism] AND (metal reduction OR iron reduction): 239 hits; Enterococcus[Organism] AND corrosion: 40 hits; Enterococcus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 3111 hits; Enterococcus[Organism] AND 'material deterioration': 11 hits; Enterococcus[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 22 hits; Enterococcus[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 132 hits; Enterococcus[Organism] AND AND biofilm AND (corrosion OR MIC): 288 hits; Enterococcus[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 2 hits</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1465</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>225</v>
+        <v>354</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colwellia</t>
+          <t>Halomonas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -623,20 +631,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Colwellia[Organism] AND corrosion[Title]: 18 hits; Colwellia[Organism] AND biocorrosion[Title]: 1 hits; Colwellia[Organism] AND 'microbiologically influenced corrosion'[Title]: 2 hits; Colwellia[Organism] AND (metal reduction OR iron reduction): 600 hits; Colwellia[Organism] AND corrosion: 45 hits; Colwellia[Organism] AND biocorrosion: 8 hits; Colwellia[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 42 hits; Colwellia[Organism] AND 'material deterioration': 3 hits; Colwellia[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 34 hits; Colwellia[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 4 hits; Colwellia[Organism] AND AND biofilm AND (corrosion OR MIC): 30 hits; Colwellia[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 19 hits; Colwellia[Organism] AND ('metal reducing bacteria'[Title/Abstract] AND corrosion): 1 hits</t>
+          <t>Halomonas[Organism] AND corrosion[Title]: 3 hits; Halomonas[Organism] AND (dsrAB OR aprAB) AND corrosion: 1 hits; Halomonas[Organism] AND (metal reduction OR iron reduction): 28 hits; Halomonas[Organism] AND corrosion: 9 hits; Halomonas[Organism] AND biocorrosion: 1 hits; Halomonas[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 10 hits; Halomonas[Organism] AND 'material deterioration': 3 hits; Halomonas[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 5 hits; Halomonas[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 2 hits; Halomonas[Organism] AND AND biofilm AND (corrosion OR MIC): 5 hits</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>807</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Corynebacterium</t>
+          <t>Legionella</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -646,58 +654,58 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Corynebacterium[Organism] AND (metal reduction OR iron reduction): 66 hits; Corynebacterium[Organism] AND corrosion: 17 hits; Corynebacterium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 195 hits; Corynebacterium[Organism] AND 'material deterioration': 3 hits; Corynebacterium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 3 hits; Corynebacterium[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 13 hits; Corynebacterium[Organism] AND AND biofilm AND (corrosion OR MIC): 13 hits</t>
+          <t>Legionella[Organism] AND corrosion[Title]: 5 hits; Legionella[Organism] AND (metal reduction OR iron reduction): 51 hits; Legionella[Organism] AND corrosion: 47 hits; Legionella[Organism] AND biocorrosion: 2 hits; Legionella[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 200 hits; Legionella[Organism] AND 'material deterioration': 7 hits; Legionella[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 23 hits; Legionella[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 3 hits; Legionella[Organism] AND AND biofilm AND (corrosion OR MIC): 20 hits; Legionella[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>310</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gelria</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+          <t>Methyloversatilis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Metal Reduction</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Methyloversatilis[Organism] AND corrosion[Title]: 1 hits; Methyloversatilis[Organism] AND (metal reduction OR iron reduction): 3 hits; Methyloversatilis[Organism] AND corrosion: 1 hits; Methyloversatilis[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1 hits; Methyloversatilis[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 1 hits</t>
+        </is>
+      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Georgfuchsia</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Georgfuchsia[Organism] AND (metal reduction OR iron reduction): 3 hits</t>
-        </is>
-      </c>
+          <t>Mycoplana</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>351</v>
+        <v>474</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Haemophilus</t>
+          <t>Neisseria</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -707,20 +715,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Haemophilus[Organism] AND (metal reduction OR iron reduction): 27 hits; Haemophilus[Organism] AND corrosion: 6 hits; Haemophilus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1514 hits; Haemophilus[Organism] AND 'material deterioration': 2 hits; Haemophilus[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 1 hits; Haemophilus[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 46 hits; Haemophilus[Organism] AND AND biofilm AND (corrosion OR MIC): 27 hits</t>
+          <t>Neisseria[Organism] AND corrosion[Title]: 1 hits; Neisseria[Organism] AND corrosion: 6 hits; Neisseria[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1147 hits; Neisseria[Organism] AND 'material deterioration': 3 hits; Neisseria[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 11 hits; Neisseria[Organism] AND AND biofilm AND (corrosion OR MIC): 18 hits; Neisseria[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1623</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lyngbya</t>
+          <t>Novosphingobium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -730,35 +738,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lyngbya[Organism] AND (metal reduction OR iron reduction): 5 hits; Lyngbya[Organism] AND corrosion: 1 hits; Lyngbya[Organism] AND biocorrosion: 2 hits; Lyngbya[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 3 hits; Lyngbya[Organism] AND 'material deterioration': 1 hits; Lyngbya[Organism] AND AND biofilm AND (corrosion OR MIC): 1 hits</t>
+          <t>Novosphingobium[Organism] AND (metal reduction OR iron reduction): 9 hits; Novosphingobium[Organism] AND corrosion: 6 hits; Novosphingobium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 2 hits; Novosphingobium[Organism] AND AND biofilm AND (corrosion OR MIC): 4 hits</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mycoplana</t>
+          <t>Oerskovia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Oerskovia[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1 hits</t>
+        </is>
+      </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nitratireductor</t>
+          <t>Opitutus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -768,20 +780,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nitratireductor[Organism] AND (metal reduction OR iron reduction): 2 hits</t>
+          <t>Opitutus[Organism] AND (metal reduction OR iron reduction): 4 hits</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Oceaniovalibus</t>
+          <t>Oxobacter</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -792,26 +804,34 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peptoclostridium</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+          <t>Paracoccus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Metal Reduction</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Paracoccus[Organism] AND corrosion[Title]: 1 hits; Paracoccus[Organism] AND (metal reduction OR iron reduction): 237 hits; Paracoccus[Organism] AND corrosion: 9 hits; Paracoccus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 8 hits; Paracoccus[Organism] AND 'material deterioration': 3 hits; Paracoccus[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 8 hits; Paracoccus[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 2 hits; Paracoccus[Organism] AND AND biofilm AND (corrosion OR MIC): 2 hits</t>
+        </is>
+      </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Phenylobacterium</t>
+          <t>Prevotella</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -821,20 +841,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Phenylobacterium[Organism] AND (metal reduction OR iron reduction): 2 hits; Phenylobacterium[Organism] AND corrosion: 1 hits</t>
+          <t>Prevotella[Organism] AND (metal reduction OR iron reduction): 27 hits; Prevotella[Organism] AND corrosion: 3 hits; Prevotella[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 224 hits; Prevotella[Organism] AND 'material deterioration': 6 hits; Prevotella[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 3 hits; Prevotella[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 10 hits; Prevotella[Organism] AND AND biofilm AND (corrosion OR MIC): 29 hits</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Porphyromonas</t>
+          <t>Psb-m-3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -844,20 +864,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Porphyromonas[Organism] AND corrosion[Title]: 5 hits; Porphyromonas[Organism] AND biocorrosion[Title]: 1 hits; Porphyromonas[Organism] AND (metal reduction OR iron reduction): 72 hits; Porphyromonas[Organism] AND corrosion: 16 hits; Porphyromonas[Organism] AND biocorrosion: 3 hits; Porphyromonas[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 325 hits; Porphyromonas[Organism] AND 'material deterioration': 7 hits; Porphyromonas[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 16 hits; Porphyromonas[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 12 hits; Porphyromonas[Organism] AND AND biofilm AND (corrosion OR MIC): 104 hits</t>
+          <t>Psb-m-3[Organism] AND (metal reduction OR iron reduction): 1 hits</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas</t>
+          <t>Pseudarthrobacter</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -867,20 +887,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas[Organism] AND corrosion[Title]: 4 hits; Pseudoalteromonas[Organism] AND 'microbiologically influenced corrosion'[Title]: 1 hits; Pseudoalteromonas[Organism] AND (metal reduction OR iron reduction): 11 hits; Pseudoalteromonas[Organism] AND corrosion: 13 hits; Pseudoalteromonas[Organism] AND biocorrosion: 3 hits; Pseudoalteromonas[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 14 hits; Pseudoalteromonas[Organism] AND 'material deterioration': 2 hits; Pseudoalteromonas[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 7 hits; Pseudoalteromonas[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 1 hits; Pseudoalteromonas[Organism] AND AND biofilm AND (corrosion OR MIC): 8 hits; Pseudoalteromonas[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
+          <t>Pseudarthrobacter[Organism] AND (metal reduction OR iron reduction): 1 hits; Pseudarthrobacter[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1 hits</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rhodanobacter</t>
+          <t>Pseudoalteromonas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -890,20 +910,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rhodanobacter[Organism] AND (metal reduction OR iron reduction): 18 hits; Rhodanobacter[Organism] AND corrosion: 1 hits; Rhodanobacter[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
+          <t>Pseudoalteromonas[Organism] AND corrosion[Title]: 4 hits; Pseudoalteromonas[Organism] AND 'microbiologically influenced corrosion'[Title]: 1 hits; Pseudoalteromonas[Organism] AND (metal reduction OR iron reduction): 11 hits; Pseudoalteromonas[Organism] AND corrosion: 13 hits; Pseudoalteromonas[Organism] AND biocorrosion: 3 hits; Pseudoalteromonas[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 14 hits; Pseudoalteromonas[Organism] AND 'material deterioration': 2 hits; Pseudoalteromonas[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 7 hits; Pseudoalteromonas[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 1 hits; Pseudoalteromonas[Organism] AND AND biofilm AND (corrosion OR MIC): 8 hits; Pseudoalteromonas[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Roseococcus</t>
+          <t>Roseateles</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -913,7 +933,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Roseococcus[Organism] AND (metal reduction OR iron reduction): 1 hits; Roseococcus[Organism] AND corrosion: 1 hits</t>
+          <t>Roseateles[Organism] AND (metal reduction OR iron reduction): 2 hits</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -922,458 +942,50 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ruminococcaceae_ucg-005</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+          <t>Streptococcus</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Metal Reduction</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Streptococcus[Organism] AND corrosion[Title]: 36 hits; Streptococcus[Organism] AND biocorrosion[Title]: 1 hits; Streptococcus[Organism] AND 'microbiologically influenced corrosion'[Title]: 3 hits; Streptococcus[Organism] AND (metal reduction OR iron reduction): 420 hits; Streptococcus[Organism] AND corrosion: 145 hits; Streptococcus[Organism] AND biocorrosion: 6 hits; Streptococcus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 5122 hits; Streptococcus[Organism] AND 'material deterioration': 41 hits; Streptococcus[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 84 hits; Streptococcus[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 201 hits; Streptococcus[Organism] AND AND biofilm AND (corrosion OR MIC): 502 hits; Streptococcus[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 3 hits</t>
+        </is>
+      </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>657</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shinella</t>
+          <t>Thiobacillus</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Metal Reduction</t>
+          <t>Metal Reduction; Sulfate Reduction</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shinella[Organism] AND (metal reduction OR iron reduction): 4 hits; Shinella[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1 hits; Shinella[Organism] AND 'material deterioration': 1 hits</t>
+          <t>Thiobacillus[Organism] AND corrosion[Title]: 8 hits; Thiobacillus[Organism] AND biocorrosion[Title]: 2 hits; Thiobacillus[Organism] AND (metal reduction OR iron reduction): 289 hits; Thiobacillus[Organism] AND corrosion: 48 hits; Thiobacillus[Organism] AND biocorrosion: 2 hits; Thiobacillus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 2 hits; Thiobacillus[Organism] AND 'material deterioration': 5 hits; Thiobacillus[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 20 hits; Thiobacillus[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 10 hits; Thiobacillus[Organism] AND AND biofilm AND (corrosion OR MIC): 8 hits; Thiobacillus[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits; Thiobacillus[Organism] AND (hydrogen sulfide OR H2S) AND (corrosion OR 'metal deterioration')Thiobacillus[Organism] AND ('sulfate reducing bacteria'[Title/Abstract] AND corrosion): 3 hits</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sphingosinicella</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Tepidimonas</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Thermus</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Thermus[Organism] AND corrosion[Title]: 1 hits; Thermus[Organism] AND 'microbiologically influenced corrosion'[Title]: 1 hits; Thermus[Organism] AND (metal reduction OR iron reduction): 143 hits; Thermus[Organism] AND corrosion: 2 hits; Thermus[Organism] AND biocorrosion: 2 hits; Thermus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 12 hits; Thermus[Organism] AND 'material deterioration': 1 hits; Thermus[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 2 hits; Thermus[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 2 hits; Thermus[Organism] AND AND biofilm AND (corrosion OR MIC): 1 hits; Thermus[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Veillonella</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Veillonella[Organism] AND corrosion[Title]: 2 hits; Veillonella[Organism] AND (metal reduction OR iron reduction): 13 hits; Veillonella[Organism] AND corrosion: 5 hits; Veillonella[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 56 hits; Veillonella[Organism] AND 'material deterioration': 1 hits; Veillonella[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 2 hits; Veillonella[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 2 hits; Veillonella[Organism] AND AND biofilm AND (corrosion OR MIC): 10 hits; Veillonella[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Xanthobacter</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Xanthobacter[Organism] AND (metal reduction OR iron reduction): 11 hits; Xanthobacter[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1 hits; Xanthobacter[Organism] AND 'material deterioration': 1 hits; Xanthobacter[Organism] AND AND biofilm AND (corrosion OR MIC): 1 hits</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Xanthomonadaceae_bacterium_wwh73</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Xanthomonadaceae_bacterium_wwh73[Organism] AND (metal reduction OR iron reduction): 1 hits</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Azospira</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Azospira[Organism] AND (metal reduction OR iron reduction): 22 hits; Azospira[Organism] AND biocorrosion: 1 hits</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Brachybacterium</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Brachybacterium[Organism] AND (metal reduction OR iron reduction): 2 hits; Brachybacterium[Organism] AND corrosion: 1 hits; Brachybacterium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 2 hits; Brachybacterium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 1 hits</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Bulleidia</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cellulosimicrobium</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Cellulosimicrobium[Organism] AND (metal reduction OR iron reduction): 4 hits; Cellulosimicrobium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 2 hits</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Clostridium</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Metal Reduction; Sulfate Reduction</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Clostridium[Organism] AND corrosion[Title]: 7 hits; Clostridium[Organism] AND biocorrosion[Title]: 1 hits; Clostridium[Organism] AND (metal reduction OR iron reduction): 589 hits; Clostridium[Organism] AND corrosion: 72 hits; Clostridium[Organism] AND biocorrosion: 4 hits; Clostridium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 682 hits; Clostridium[Organism] AND 'material deterioration': 14 hits; Clostridium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 26 hits; Clostridium[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 30 hits; Clostridium[Organism] AND AND biofilm AND (corrosion OR MIC): 27 hits; Clostridium[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 10 hits; Clostridium[Organism] AND (hydrogen sulfide OR H2S) AND (corrosion OR 'metal deterioration')Clostridium[Organism] AND ('sulfate reducing bacteria'[Title/Abstract] AND corrosion): 3 hits</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Corynebacterium</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Corynebacterium[Organism] AND (metal reduction OR iron reduction): 66 hits; Corynebacterium[Organism] AND corrosion: 17 hits; Corynebacterium[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 195 hits; Corynebacterium[Organism] AND 'material deterioration': 3 hits; Corynebacterium[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 3 hits; Corynebacterium[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 13 hits; Corynebacterium[Organism] AND AND biofilm AND (corrosion OR MIC): 13 hits</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Halomonas</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Halomonas[Organism] AND corrosion[Title]: 3 hits; Halomonas[Organism] AND (dsrAB OR aprAB) AND corrosion: 1 hits; Halomonas[Organism] AND (metal reduction OR iron reduction): 28 hits; Halomonas[Organism] AND corrosion: 9 hits; Halomonas[Organism] AND biocorrosion: 1 hits; Halomonas[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 10 hits; Halomonas[Organism] AND 'material deterioration': 3 hits; Halomonas[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 5 hits; Halomonas[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 2 hits; Halomonas[Organism] AND AND biofilm AND (corrosion OR MIC): 5 hits</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Legionella</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Legionella[Organism] AND corrosion[Title]: 5 hits; Legionella[Organism] AND (metal reduction OR iron reduction): 51 hits; Legionella[Organism] AND corrosion: 47 hits; Legionella[Organism] AND biocorrosion: 2 hits; Legionella[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 200 hits; Legionella[Organism] AND 'material deterioration': 7 hits; Legionella[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 23 hits; Legionella[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 3 hits; Legionella[Organism] AND AND biofilm AND (corrosion OR MIC): 20 hits; Legionella[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mycoplana</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Oerskovia</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Oerskovia[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 1 hits</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Oxobacter</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Paracoccus</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Paracoccus[Organism] AND corrosion[Title]: 1 hits; Paracoccus[Organism] AND (metal reduction OR iron reduction): 237 hits; Paracoccus[Organism] AND corrosion: 9 hits; Paracoccus[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 8 hits; Paracoccus[Organism] AND 'material deterioration': 3 hits; Paracoccus[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 8 hits; Paracoccus[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 2 hits; Paracoccus[Organism] AND AND biofilm AND (corrosion OR MIC): 2 hits</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Psb-m-3</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Psb-m-3[Organism] AND (metal reduction OR iron reduction): 1 hits</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Pseudoalteromonas</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Metal Reduction</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Pseudoalteromonas[Organism] AND corrosion[Title]: 4 hits; Pseudoalteromonas[Organism] AND 'microbiologically influenced corrosion'[Title]: 1 hits; Pseudoalteromonas[Organism] AND (metal reduction OR iron reduction): 11 hits; Pseudoalteromonas[Organism] AND corrosion: 13 hits; Pseudoalteromonas[Organism] AND biocorrosion: 3 hits; Pseudoalteromonas[Organism] AND (MIC OR 'microbiologically influenced corrosion'): 14 hits; Pseudoalteromonas[Organism] AND 'material deterioration': 2 hits; Pseudoalteromonas[Organism] AND ('metal deterioration' OR 'metallic corrosion'): 7 hits; Pseudoalteromonas[Organism] AND (acid production) AND (corrosion OR 'metal deterioration' OR MIC): 1 hits; Pseudoalteromonas[Organism] AND AND biofilm AND (corrosion OR MIC): 8 hits; Pseudoalteromonas[Organism] AND (ochre formation OR iron oxide deposits OR rust formation): 1 hits</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>65</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,255 +1031,251 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actinomyces</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Minhaco, V., et al. (2023). Improving antimicrobial activity against endodontic biofilm after exposure to blue light-activated novel curcumin nanoparticle.. Photodiagnosis and photodynamic therapy, 42, 103322.</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>New therapies involving natural products and nanobiotechnology open additional perspectives to reduce endodontic infections. Curcumin is a natural polyphenol extracted from the dry rhizome of curcuma long Linn with therapeutic properties for application in nanobiotechnology and as a photosensitizer for photodynamic therapy. This study aimed to synthesize a novel polymeric nanoparticle of poly (lactic-co-glycolic acid) (PLGA) loaded with curcumin (NP+Cur), and evaluate its antimicrobial activity against endodontic biofilms. Additionally, its biocompatibility using oral keratinocytes was assessed. The polymeric NP+Cur was prepared by the nanoprecipitation method. Minimum inhibitory concentration (MIC) and minimum bactericidal concentration (MBC) were calculated for the three endodontic bacteria (Enterococcus faecalis, Streptococcus oralis and Actinomyces viscosus). Antibacterial activity of NP+Cur against single- and multispecies biofilm pre-formed on the botton 24-well plate and into dentin tubules of bovine teeth were evaluated by colony forming units and confocal laser scanning microscopy. The pre-irradiation time was 5 min followed by exposure to blue light-emitting diode at 450 nm for the photodynamic treatment. Cell viability using oral keratinocytes was assessed by Alamar Blue assay. MIC and MBC showed antibacterial activity of NP+Cur against endodontic bacteria. A treatment of pre-formed biofilms of endodontic bacteria with NP+Cur also significantly decreased bacterial viability. The concentration of 325 μg/mL of photoactivated NP+Cur was the one that most reduced the viability of the endodontic bacteria evaluated. Regarding biocompatibility, NP+Cur 325 μg/mL and pure nanoparticles showed a cell viability greater than 80%. The novel polymeric nanoparticles loaded with curcumin may be a promising adjunct use to treatment of endodontic infections.</t>
-        </is>
-      </c>
+          <t>Bulleidia</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anaerococcus</t>
+          <t>Cellulosimicrobium</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Akgül, Ö., Söyletir, G. &amp; Ülger Toprak, N. (2020). [Antimicrobial Susceptibility of Pathogenic Gram-positive Anaerobic Cocci: Data of a University Hospital in Turkey].. Mikrobiyoloji bulteni, 54(3), 404-417.</t>
+          <t>Bharagava, R. &amp; Mishra, S. (2018). Hexavalent chromium reduction potential of Cellulosimicrobium sp. isolated from common effluent treatment plant of tannery industries.. Ecotoxicology and environmental safety, 147, 102-109.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Gram-positive anaerobic cocci (GPAC), a large group of anaerobic bacteria, are the members of the normal microbiota that colonizes the skin and mucosal surfaces of the human body. However, in case of a wound or when the host becomes immunocompromised, GPAC can cause invasive and most frequently mixed infections. GPAC are the second most frequently isolated bacteria in anaerobic infections. Although the studies are limited, GPAC have been reported to develop resistance to antimicrobial drugs. The resistance of the pathogens to the antimicrobials and improper therapy can cause poor clinical outcomes. Therefore, monitoring of the resistance trends of regional clinically important anaerobic bacteria periodically is recommended. In our study, we aimed to determine the antimicrobial susceptibility profiles of clinically important GPAC. A total of 100 non-duplicated pathogenic GPAC isolates were collected from Marmara University Hospital between 2013 and 2015. The isolates were identified by using conventional methods, "matrix-assisted laser desorption ionization-time of flight mass spectrometry system (MALDI-TOF MS)" (VITEK MS; v3.0, bioMerieux, France) and 16S rRNA gene sequencing. Antimicrobial susceptibility test was carried out by the agar dilution method according to the Clinical and Laboratory Standards Institute (CLSI) guidelines. The following antimicrobials were tested: penicillin, amoxicillin/ clavulanic acid (AMC), cefoxitin, meropenem, clindamycin, erythromycin, tetracycline, tigecycline, chloramphenicol, moxifloxacin and metronidazole. The minimum inhibitory concentration (MIC) results were interpreted according to the breakpoints described by the European Committee on Antimicrobial Susceptibility Testing (EUCAST). Breakpoints recommended by CLSI for cefoxitin, tetracycline and moxifloxacin, and breakpoint recommended by Food and Drug Administration (FDA) for tigecycline were used since there were no EUCAST breakpoints for these antimicrobials. MIC50 and MIC90 values were determined for erythromycin since the breakpoint was not described by EUCAST, CLSI or FDA guidelines. The identification results showed that the strains (n= 100) consisted of five different GPAC genus; Parvomonas (40%), Finegoldia (34%), Peptoniphilus (14%), Peptostreptococcus (10%) and Anaerococcus (1%). All of the organisms were susceptible to meropenem, tigecycline and metronidazole. The isolates were highly susceptible to penicillin, AMC, cefoxitin, and chloramphenicol, since the resistance rates against these antimicrobials were 5% or less. The resistance rates against clindamycin, tetracycline and moxifloxacin were 14%, 31% and 24%, respectively. In total, 11% of the isolates were multidrug resistant. Metronidazole and tigecycline displayed high in vitro activity against GPAC and both are appropriate antimicrobials for the selection of empiric therapy. The effectiveness of meropenem was also found high, but it was observed that this antimicrobial would be more appropriate to use in the treatment of severe mixed infections accompanied by other microorganisms with the resistance potential. Detection of penicillin and AMC resistant isolates, which are frequently used in the treatment of GPAC infection, requires periodic monitoring of the antimicrobial susceptibility patterns of GPAC. The high rates of resistance against clindamycin, tetracycline and moksifloxacin indicated that these antimicrobials should not be used for empirical treatment of infections without prior antimicrobial susceptibility testing. This study is one of the largest susceptibility studies specifically carried out on GPAC to date in Turkey. We believe that our results will provide good surveillance data both for our hospital and our country.</t>
+          <t>Present study deals with the isolation and characterization of a bacterium capable for the effective reduction of Cr(VI) from tannery wastewater. Based on the 16S rRNA gene sequence analysis, this bacterium was identified as Cellulosimicrobium sp. (KX710177). During the Cr(VI) reduction experiment performed at 50, 100, 200,and 300mg/L of Cr(VI) concentrations, the bacterium showed 99.33% and 96.98% reduction at 50 and 100mg/L at 24 and 96h, respectively. However, at 200 and 300mg/L concentration of Cr(VI), only 84.62% and 62.28% reduction was achieved after 96h, respectively. The SEM analysis revealed that bacterial cells exposed to Cr(VI) showed increased cell size in comparison to unexposed cells, which might be due to either the precipitation or adsorption of reduced Cr(III) on bacterial cells. Further, the Energy Dispersive X-ray (EDX) analysis showed some chromium peaks for cells exposed to Cr(VI), which might be either due to the presence of precipitated reduced Cr(III) on cells or complexation of Cr(III) with cell surface molecules. The bacterium also showed resistance and sensitivity against the tested antibiotics with a wide range of MIC values ranging from 250 to 800mg/L for different heavy metals. Thus, this multi-drug and multi-metal resistant bacterium can be used as a potential agent for the effective bioremediation of metal contaminated sites.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aquabacter</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
+          <t>Clavibacter</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Cai, J., Wang, S. &amp; Wang, Q. (2023). Antibacterial Activity of Dihydroquercetin Separated from Fructus &lt;i&gt;Polygoni orientalis&lt;/i&gt; against &lt;i&gt;Clavibacter michiganensis&lt;/i&gt; subsp. &lt;i&gt;sepedonicus&lt;/i&gt; via Damaging Cell Membrane.. Foods (Basel, Switzerland), 13(1).</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>The yield and quality of potato can be severely affected by bacterial ring rot, which is caused by &lt;i&gt;Clavibacter michiganensis&lt;/i&gt; subsp. &lt;i&gt;sepedonicus&lt;/i&gt; (Cms). Recently, using natural compounds to control bacteria has received more attention. In this study, five antibacterial compounds from ethyl acetate (EtOAc) extract of Fructus &lt;i&gt;Polygoni orientalis&lt;/i&gt; (FPO) against Cms were isolated and the most active compound was screened. Five active compounds were identified as 3,3'-di-&lt;i&gt;O&lt;/i&gt;-methylellagic acid (&lt;b&gt;1&lt;/b&gt;), 3,3'-di-&lt;i&gt;O&lt;/i&gt;-methylellagic acid-4-&lt;i&gt;O&lt;/i&gt;-&lt;i&gt;β&lt;/i&gt;-&lt;i&gt;D&lt;/i&gt;-glucopyranoside (&lt;b&gt;2&lt;/b&gt;), dihydroquercetin (&lt;b&gt;3&lt;/b&gt;), protocatechuic acid (&lt;b&gt;4&lt;/b&gt;) and quercetin (&lt;b&gt;5&lt;/b&gt;). Compound &lt;b&gt;3&lt;/b&gt; (dihydroquercetin, DHQ) was confirmed as the most active compound. The diameter of inhibition zone (DIZ), minimum inhibitory concentration (MIC), protective efficiency and curative efficiency of DHQ were 22.50 mm, 0.313 mg/mL, 84.49% and 79.63%, respectively, which exceeded these of thiophanate-methyl (TM) in antibacterial activity assays; this indicated that DHQ had satisfactory antibacterial activities against Cms in vitro and in vivo. Results of cell membrane damage assessments indicated that DHQ could reduce membrane potential (MP), disrupt the cell membrane integrity, and promote the leakage of nucleic acids and proteins. Overall, these findings suggested that DHQ could serve as a promising lead molecular against Cms, which could provide a basis for its further derivatization.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aquabacterium</t>
+          <t>Clostridium</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Jin, J., Wu, G. &amp; Guan, Y. (2015). Effect of bacterial communities on the formation of cast iron corrosion tubercles in reclaimed water.. Water research, 71, 207-18.</t>
+          <t>Ramos Monroy, O., Ruiz Ordaz, N., Hernández Gayosso, M., Juárez Ramírez, C. &amp; Galíndez Mayer, J. (2019). The corrosion process caused by the activity of the anaerobic sporulated bacterium Clostridium celerecrescens on API XL 52 steel.. Environmental science and pollution research international, 26(29), 29991-30002.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>To understand the role bacterial communities play in corrosion scale development, the morphological and physicochemical characteristics of corrosion scales in raw and disinfected reclaimed water were systematically investigated. Corrosion tubercles were found in raw reclaimed water while thin corrosion layers formed in disinfected reclaimed water. The corrosion tubercles, composed mainly of α-FeOOH, γ-FeOOH, and CaCO3, consisted of an top surface; a shell containing more magnetite than other layers; a core in association with stalks produced by bacteria; and a corroded layer. The thin corrosion layers also had layered structures. These had a smooth top, a dense middle, and a corroded layer. They mostly consisted of the same main components as the tubercles in raw reclaimed water, but with different proportions. The profiles of the dissolved oxygen (DO) concentration, redox potential, and pH in the tubercles were different to those in the corrosion layers, which demonstrated that these parameters changed with a shift in the microbial processes in the tubercles. The bacterial communities in the tubercles were found to be dominated by Proteobacteria (56.7%), Bacteroidetes (10.0%), and Nitrospira (6.9%). The abundance of sequences affiliated to iron-reducing bacteria (IRB, mainly Geothrix) and iron-oxidizing bacteria (mainly Aquabacterium) was relatively high. The layered characteristics of the corrosion layers was due to the blocking of DO transfer by the development of the scales themselves. Bacterial communities could at least promote the layering process and formation of corrosion tubercles. Possible mechanisms might include: (1) bacterial communities mediated the pH and redox potential in the tubercles (which helped to form shell-like and core layers), (2) the metabolism of IRB and magnetic bacteria (Magnetospirillum) might contribute to the presence of Fe3O4 in the shell-like layer, while IRB contributed to green rust in the core layer, and (3) the diversity of the bacterial community resulted in the complex composition of the core layer, and gas producing bacteria (sulfate-reducing bacteria and methanogenic bacteria) played a role in the formation of the porous core layer.</t>
+          <t>The microbial corrosion of oil and gas pipes is one of the problems occurring in the oil industry. Various mechanisms explaining microbial corrosion have been demonstrated. Commonly, biocorrosion is attributed to sulfate-reducing bacteria. Also, it has recently been reported that microbial species can connect their electron transport system to metal electrodes. In this research, two spore-forming bacteria isolated in different years from a gas pipeline were identified by biochemical techniques and by 16S rDNA amplification, sequencing, and comparison with the NCBI database. Isolates were also compared between them using molecular techniques as the restriction patterns, unique for 16S rDNA (ARDRA), and the profile of the amplified bit from the genomic DNA, using an unspecific primer (RAPD). The results obtained showed that both isolates corresponded to Clostridium celerecrescens with a 99% similarity according to the sequence reported on the NCBI database. Also, the ARDRA and RAPD electrophoretic profiles of both strains were identical, and no plasmids were found in the strains. Thus, it can be settled that this bacterium is persistent in the environment prevailing in gas pipelines. Also, it was demonstrated that the bacterial secretion of organic acids contributes to the pitting and general biocorrosion of API XL 52 steel. The rates of corrosion obtained, approximately after 40 days, were correlated with the presence and metabolic activity of C. celerecrescens on the metallic surfaces.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Atopobium</t>
+          <t>Cohnella</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Rosca, A., Castro, J., Sousa, L., França, A., Vaneechoutte, M. &amp; Cerca, N. (2022). In vitro interactions within a biofilm containing three species found in bacterial vaginosis (BV) support the higher antimicrobial tolerance associated with BV recurrence.. The Journal of antimicrobial chemotherapy, 77(8), 2183-2190.</t>
+          <t>Ghamarypour, A., Aminzadeh, S., Majd, A. &amp; Movahedi, M. (2024). A novel thermophilic lysozyme 4356 from Cohnella sp. A01: Cloning, heterologous expression, biochemical and kinetic characterization.. International journal of biological macromolecules, 279(Pt 4), 135341.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Bacterial vaginosis (BV), the most common cause of vaginal discharge, is characterized by the presence of a polymicrobial biofilm on the vaginal epithelium, formed primarily by Gardnerella spp., but also other anaerobic species. Interactions between bacteria in multi-species biofilms are likely to contribute to increased virulence and to enhanced antimicrobial tolerance observed in vivo. However, functional studies addressing this question are lacking.</t>
+          <t>Lysozymes have gained attention for their antiseptic properties. In silico studies have shown that the enzyme containing lysM can act as an antibacterial agent. Binding of the lysM motif of rSELys to peptidoglycan and molecular dynamics simulations showed that the protein-ligand binding is very stable. rSELys (2016 bp) is a new recombinant glycoside hydrolase from the thermophilic bacterium Cohnella sp. A01 (PTCC number: 1921). Protein expression and purification, a single band with an apparent molecular weight of ∼74 kDa was observed by SDS-PAGE. The kinetic parameters were K&lt;sub&gt;m&lt;/sub&gt; 1.163 mg/ml, Vmax 670.3 U/mg, k&lt;sub&gt;cat&lt;/sub&gt; 1675.75 (S&lt;sup&gt;-1&lt;/sup&gt;), and k&lt;sub&gt;cat&lt;/sub&gt;/K&lt;sub&gt;m&lt;/sub&gt; 1440.88 (M&lt;sup&gt;-1&lt;/sup&gt;S&lt;sup&gt;-1&lt;/sup&gt;). Its optimum temperature was 55 °C and pH 8. Temperature stability also showed that the temperature of 50-60 °C retained more than half of its activity after 90 min. Based on the results, rSELys demonstrated antibacterial effects on both Gram-positive and Gram-negative strains, with inhibition zones of 11 and 9 mm, respectively. SEM analysis confirmed hydrolysis activity, the MIC was determined to be 31.25 μg/ml and 3.9 μg/ml, and MBC 0.97 μg/ml, respectively. CD and fluorescence studies showed that up to a temperature of 85 °C and a pH value of 8-12 no structural changes occur, and thermal stability protein was confirmed.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cellulosimicrobium</t>
+          <t>Corynebacterium</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Bharagava, R. &amp; Mishra, S. (2018). Hexavalent chromium reduction potential of Cellulosimicrobium sp. isolated from common effluent treatment plant of tannery industries.. Ecotoxicology and environmental safety, 147, 102-109.</t>
+          <t>Aimo-Koivisto, E., Punakallio, L., Järvinen, R., Junnila, J., Grönthal, T. &amp; Rantala, M. (2024). A pilot study of antimicrobial effects and ototoxicity of a Norway spruce (Picea abies) resin-based canine otic rinse product.. Veterinary dermatology, 35(3), 325-336.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Present study deals with the isolation and characterization of a bacterium capable for the effective reduction of Cr(VI) from tannery wastewater. Based on the 16S rRNA gene sequence analysis, this bacterium was identified as Cellulosimicrobium sp. (KX710177). During the Cr(VI) reduction experiment performed at 50, 100, 200,and 300mg/L of Cr(VI) concentrations, the bacterium showed 99.33% and 96.98% reduction at 50 and 100mg/L at 24 and 96h, respectively. However, at 200 and 300mg/L concentration of Cr(VI), only 84.62% and 62.28% reduction was achieved after 96h, respectively. The SEM analysis revealed that bacterial cells exposed to Cr(VI) showed increased cell size in comparison to unexposed cells, which might be due to either the precipitation or adsorption of reduced Cr(III) on bacterial cells. Further, the Energy Dispersive X-ray (EDX) analysis showed some chromium peaks for cells exposed to Cr(VI), which might be either due to the presence of precipitated reduced Cr(III) on cells or complexation of Cr(III) with cell surface molecules. The bacterium also showed resistance and sensitivity against the tested antibiotics with a wide range of MIC values ranging from 250 to 800mg/L for different heavy metals. Thus, this multi-drug and multi-metal resistant bacterium can be used as a potential agent for the effective bioremediation of metal contaminated sites.</t>
+          <t>Norway spruce (Picea abies) resin-based products are used in human medicine. A resin-based otic rinse also could be useful in supportive care of canine otitis externa (COE), yet information on its antimicrobial effect against canine pathogens or ototoxicity is lacking.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clostridium</t>
+          <t>Enterococcus</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Ramos Monroy, O., Ruiz Ordaz, N., Hernández Gayosso, M., Juárez Ramírez, C. &amp; Galíndez Mayer, J. (2019). The corrosion process caused by the activity of the anaerobic sporulated bacterium Clostridium celerecrescens on API XL 52 steel.. Environmental science and pollution research international, 26(29), 29991-30002.</t>
+          <t>Teiba, I., Mamdouh, I., Yousef, M., Hussein, A. &amp; El-Bilawy, E. (2025). Antimicrobial activity of Monascus purpureus-derived red pigments against Salmonella typhimurium, Escherichia coli, and Enterococcus faecalis.. AMB Express, 15(1), 6.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>The microbial corrosion of oil and gas pipes is one of the problems occurring in the oil industry. Various mechanisms explaining microbial corrosion have been demonstrated. Commonly, biocorrosion is attributed to sulfate-reducing bacteria. Also, it has recently been reported that microbial species can connect their electron transport system to metal electrodes. In this research, two spore-forming bacteria isolated in different years from a gas pipeline were identified by biochemical techniques and by 16S rDNA amplification, sequencing, and comparison with the NCBI database. Isolates were also compared between them using molecular techniques as the restriction patterns, unique for 16S rDNA (ARDRA), and the profile of the amplified bit from the genomic DNA, using an unspecific primer (RAPD). The results obtained showed that both isolates corresponded to Clostridium celerecrescens with a 99% similarity according to the sequence reported on the NCBI database. Also, the ARDRA and RAPD electrophoretic profiles of both strains were identical, and no plasmids were found in the strains. Thus, it can be settled that this bacterium is persistent in the environment prevailing in gas pipelines. Also, it was demonstrated that the bacterial secretion of organic acids contributes to the pitting and general biocorrosion of API XL 52 steel. The rates of corrosion obtained, approximately after 40 days, were correlated with the presence and metabolic activity of C. celerecrescens on the metallic surfaces.</t>
+          <t>The rise of antimicrobial-resistant microorganisms (AMR) poses a significant global challenge to human health and economic stability. In response, various scientific communities are seeking safe alternatives to antibiotics. This study comprehensively investigates the antibacterial effects of red dye derived from Monascus purpureus against three bacterial pathogens: Salmonella typhimurium ATCC14028, Escherichia coli ATCC8739, and Enterococcus faecalis ATCC25923. The dye was extracted from the Monascus purpureus ATCC16436 strain, using 1 mg of red dye in 1 ml of DMSO to achieve a concentration of 1000 µg/ml. The chemical profile of the red dye extract was analyzed using GC-MS analysis, confirming the presence of several bioactive antimicrobial compounds, including aspidospermidin-17-ol, 1-acetyl-16-methoxy, octanoic acid, and hexadecanoic acid methyl ester. The extract was tested against the bacterial strains at varying concentrations to determine the minimum inhibitory concentrations (MIC) and minimum bactericidal concentrations (MBC). The results demonstrated significant antibacterial activity, with the highest MIC and MBC values of 6.25/12.5 µg/ml against S. typhimurium. The antibacterial activity of the red dye was compared to five conventional antibiotics using the disc diffusion method, revealing superior effectiveness, particularly against S. typhimurium, with an inhibition zone measuring 20 ± 0.22 mm. Scanning electron microscopy was employed to explore the mechanism of action of the red dye extract, highlighting its impact on bacterial plasma membrane permeability and its interference with cellular energy production. These findings suggest that the Monascus purpureus-derived red dye extract represents a promising natural alternative to conventional antibiotics, demonstrating potent antibacterial activity and potential as a novel therapeutic agent in combating antimicrobial resistance.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>225</v>
+        <v>354</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colwellia</t>
+          <t>Halomonas</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Ul Karim, M., et al. (2022). Marinoquinolones and Marinobactoic Acid: Antimicrobial and Cytotoxic &lt;i&gt;ortho&lt;/i&gt;-Dialkylbenzene-Class Metabolites Produced by a Marine Obligate Gammaproteobacterium of the Genus &lt;i&gt;Marinobacterium&lt;/i&gt;.. Journal of natural products, 85(7), 1763-1770.</t>
+          <t>Taghavi, S., Abbasi Montazeri, E., Zekavati, R., Roomiani, L. &amp; Saffarian, P. (2023). Identification of a New Compound (4-Fluoro-2-Trifluoromethyl Imidazole) Extracted from a New Halophilic &lt;i&gt;Bacillus aquimaris&lt;/i&gt; Strain Persiangulf TA2 Isolated from the Northern Persian Gulf with Broad-Spectrum Antimicrobial Effect.. Iranian journal of biotechnology, 21(4), e3359.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Chemical investigation of the culture extract of a marine obligate proteobacterium, &lt;i&gt;Marinobacterium&lt;/i&gt; sp. C17-8, isolated from scleractinian coral &lt;i&gt;Euphyllia&lt;/i&gt; sp., led to the discovery of three new &lt;i&gt;o&lt;/i&gt;-dialkylbenzene-class metabolites, designated marinoquinolones A (&lt;b&gt;1&lt;/b&gt;) and B (&lt;b&gt;2&lt;/b&gt;) and marinobactoic acid (&lt;b&gt;3&lt;/b&gt;). Spectroscopic analysis using MS and NMR revealed the structures of &lt;b&gt;1&lt;/b&gt; and &lt;b&gt;2&lt;/b&gt; to be 4-quinolones with an &lt;i&gt;o&lt;/i&gt;-dialkylbenzene-containing side chain at C3 and &lt;b&gt;3&lt;/b&gt; to be a fatty acid bearing an &lt;i&gt;o&lt;/i&gt;-dialkylbenzene substructure. The 4-quinolone form of &lt;b&gt;1&lt;/b&gt; and &lt;b&gt;2&lt;/b&gt; was unequivocally determined by comparison of the &lt;sup&gt;1&lt;/sup&gt;H, &lt;sup&gt;13&lt;/sup&gt;C, and &lt;sup&gt;15&lt;/sup&gt;N chemical shifts of &lt;b&gt;1&lt;/b&gt; with those predicted for 2-methyl-4-quinolone &lt;b&gt;A&lt;/b&gt; and its tautomer 2-methyl-4-quinolinol &lt;b&gt;B&lt;/b&gt; by quantum chemical calculation. Compound &lt;b&gt;1&lt;/b&gt; was proven to be racemic by X-ray crystallographic analysis and chiral-phase HPLC analysis of its chemical degradation product. Compounds &lt;b&gt;1&lt;/b&gt;-&lt;b&gt;3&lt;/b&gt; exhibited antimicrobial activity against bacteria and filamentous fungi at MIC of 6.3-50 μg/mL. In addition, all compounds showed cytotoxicity against P388 murine leukemia cells at micromolar ranges.</t>
+          <t>The unique ecosystem of the Persian Gulf has made it a rich source of natural antimicrobial compounds produced by various microorganisms, especially bacteria, which can be used in the treatment of infectious diseases, especially those of drug-resistant microbes.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Corynebacterium</t>
+          <t>Legionella</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Aimo-Koivisto, E., Punakallio, L., Järvinen, R., Junnila, J., Grönthal, T. &amp; Rantala, M. (2024). A pilot study of antimicrobial effects and ototoxicity of a Norway spruce (Picea abies) resin-based canine otic rinse product.. Veterinary dermatology, 35(3), 325-336.</t>
+          <t>Chen, Y., et al. (2024). Synergistic effects of ozonation pretreatment and trace phosphate on water quality health risk and microbial stability in simulated drinking water distribution systems.. Journal of hazardous materials, 485, 136913.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Norway spruce (Picea abies) resin-based products are used in human medicine. A resin-based otic rinse also could be useful in supportive care of canine otitis externa (COE), yet information on its antimicrobial effect against canine pathogens or ototoxicity is lacking.</t>
+          <t>The proliferation and chlorine resistance of pathogenic bacteria in drinking water distribution systems (DWDSs) pose a serious threat to human health. In this study, the synergistic effects of ozonation pretreatment and trace phosphate on water quality health risk and microbial stability were investigated in the small-scale DWDSs simulated by biofilms annular reactors with cast iron coupons. The results indicated that ozonation of drinking water containing trace phosphate was equivalent to increasing microbial carbon and phosphorus sources, further leading to the rapid proliferation of opportunistic pathogens (OPs) in subsequent DWDSs. Under the influent condition of ozonation pretreatment and 0.6 mg/L phosphate, the gene copy numbers of living Legionella spp., Mycobacterium spp., and Acanthamoeba spp. reached up to 1.50 × 10&lt;sup&gt;4&lt;/sup&gt;, 1.21 × 10&lt;sup&gt;4&lt;/sup&gt;, and 2.29 × 10&lt;sup&gt;4&lt;/sup&gt; gene copies/mL, respectively. The extracellular polymeric substances from suspended biofilms in DWDSs exhibited higher content, molecular weight, and flocculating efficiency, contributing to the improvement of microbial chlorine resistance. Meanwhile, more Fe&lt;sub&gt;3&lt;/sub&gt;O&lt;sub&gt;4&lt;/sub&gt; appeared in the corrosion products, which enhanced the extracellular electron transfer via cytochrome c and weakened the electrostatic repulsion between corrosion products and microbes in DWDSs. Finally, more active OP growth and microbial metabolic activity occurred in DWDSs. This study revealed that ozonation pretreatment and trace phosphate, as a green technology and an inconspicuous nutrient, respectively, can trigger significant microbial health risks in subsequent DWDSs. Therefore, the phosphate in drinking water should be more strictly restricted when ozonation technology is used in waterworks, especially without a biofiltration treatment process.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gelria</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
+          <t>Methyloversatilis</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Shrestha, R., et al. (2021). Anaerobic microbial corrosion of carbon steel under conditions relevant for deep geological repository of nuclear waste.. The Science of the total environment, 800, 149539.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>We examined microbial corrosion of carbon steel in synthetic bentonite pore water inoculated with natural underground water containing microorganisms over a period of 780-days under sterile and anaerobic conditions. Corrosion behaviour was determined using the mass loss method, SEM-EDS analysis and Raman spectroscopy, while qualitative and quantitative changes in the microbial community were analysed using molecular-biological tools (16S rDNA amplicon sequencing and qPCR analysis, respectively). Corrosion rates were significantly higher in the biotic environment (compared with an abiotic environment), with significant localisation of corrosion attacks of up to 1 mm arising within 12-months. Nitrate reducing bacteria, such as Pseudomonas, Brevundimonas and Methyloversatilis, dominated the microbial consortium, the high abundance of Methyloversatilis correlating with periods of highest localised corrosion penetrations, suggesting that this bacterium plays an important role in microbially influenced corrosion. Our results indicate that nitrate-reducing bacteria could represent a potential threat to waste canisters under nuclear repository conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Georgfuchsia</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Atashgahi, S., et al. (2021). Proteogenomic analysis of Georgfuchsia toluolica revealed unexpected concurrent aerobic and anaerobic toluene degradation.. Environmental microbiology reports, 13(6), 841-851.</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Denitrifying Betaproteobacteria play a key role in the anaerobic degradation of monoaromatic hydrocarbons. We performed a multi-omics study to better understand the metabolism of the representative organism Georgfuchsia toluolica strain G5G6 known as a strict anaerobe coupling toluene oxidation with dissimilatory nitrate and Fe(III) reduction. Despite the genomic potential for degradation of different carbon sources, we did not find sugar or organic acid transporters, in line with the inability of strain G5G6 to use these substrates. Using a proteomics analysis, we detected proteins of fumarate-dependent toluene activation, membrane-bound nitrate reductase, and key components of the metal-reducing (Mtr) pathway under both nitrate- and Fe(III)-reducing conditions. High abundance of the multiheme cytochrome MtrC implied that a porin-cytochrome complex was used for respiratory Fe(III) reduction. Remarkably, strain G5G6 contains a full set of genes for aerobic toluene degradation, and we detected enzymes of aerobic toluene degradation under both nitrate- and Fe(III)-reducing conditions. We further detected an ATP-dependent benzoyl-CoA reductase, reactive oxygen species detoxification proteins, and cytochrome c oxidase indicating a facultative anaerobic lifestyle of strain G5G6. Correspondingly, we found diffusion through the septa a substantial source of oxygen in the cultures enabling concurrent aerobic and anaerobic toluene degradation by strain G5G6.</t>
-        </is>
-      </c>
+          <t>Mycoplana</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>351</v>
+        <v>474</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Haemophilus</t>
+          <t>Neisseria</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Obeidat, M., Haddad, M. &amp; Ghnamat, S. (2024). Antimicrobial activities of seasonally collected bee products: honey, propolis, royal jelly, venom, and mellitin.. Brazilian journal of biology = Revista brasleira de biologia, 84, e286731.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Ethanolic extracts of seasonally collected natural bee products (honey, propolis, royal jelly (RJ), and bee venom (BV)) were tested for their potential as antimicrobial agents against antibiotic-resistant bacteria and fungi. These extracts exhibited various inhibitory effects on antibiotic-resistant bacteria (Streptococcus pneumoniae, Staphylococcus aureus, MRSA, Salmonella typhimurium, Escherichia coli, Pseudomonas aeruginosa, Klebsiella pneumoniae, Proteus vulgaris, and Haemophilus influenzae) and fungi (Aspergillus brasiliensis and Candida albicans), with the exception of S. pneumonia, which was not inhibited by honey and RJ extracts, and P. aeruginosa, which was not inhibited by RJ extracts. Interestingly, extracts of BV and its major content, melittin (MEL), displayed a wide spectrum of antimicrobial activity against all tested bacteria and fungi. This is the first study to show that propolis extract has bactericidal activity against S. pneumoniae and that BV extract and MEL have antibacterial activity against P. vulgaris, H. influenzae, and H. influenzae type b. Extracts of bee products collected in the spring generally exhibited the most significant antibacterial and antifungal activities. Based on total phenolic content (TPC) and total flavonoid content (TFC), it was found that spring samples of propolis, RJ, and honey, in that order, were the richest. Also, LC-MS-MS analysis of MEL content in BV demonstrated that it was the highest in spring sample. In terms of MIC and MBC values, Gram-positive bacteria were the most susceptible to bee products. First and foremost, the antimicrobial activity of bee products was ranked in descending order based on MIC values: BV, MEL, propolis, RJ, and honey.</t>
-        </is>
-      </c>
+          <t>Henriksen, S. (1974). "Pitting" and "corrosion" of the surface of agar cultures by colonies of some bacteria from the respiratory tract.. Acta pathologica et microbiologica Scandinavica. Section B: Microbiology and immunology, 82(1), 48-52.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lyngbya</t>
+          <t>Novosphingobium</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Parvin, N., Mandal, S. &amp; Rath, J. (2024). Microbiome of seventh-century old Parsurameswara stone monument of India and role of desiccation-tolerant cyanobacterium &lt;i&gt;Lyngbya corticicola&lt;/i&gt; on its biodeterioration.. Biofouling, 40(1), 40-53.</t>
+          <t>Silva, R., et al. (2018). Microbial enrichment and gene functional categories revealed on the walls of a spent fuel pool of a nuclear power plant.. PloS one, 13(10), e0205228.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>The Parsurameswara stone monument, built in the seventh century, is one of the oldest stone monuments in Odisha, India. Metagenomic analysis of the biological crust samples collected from the stone monument revealed 17 phyla in the microbiome, with Proteobacteria being the most dominant phylum, followed by cyanobacteria. Eight cyanobacteria were isolated. &lt;i&gt;Lyngbya corticicola&lt;/i&gt; was the dominant cyanobacterium in all crust samples and could tolerate six months of desiccation &lt;i&gt;in vitro&lt;/i&gt;. With six months of desiccation, chlorophyll-&lt;i&gt;a&lt;/i&gt; decreased; however, carotenoid and cellular carbohydrate contents of this organism increased in the desiccated state. Resistance to desiccation, high carotenoid content, and effective trehalose biosynthesis in this cyanobacterium provide a distinct advantage over other microbiomes. Comparative metabolic profiles of the biological crust and &lt;i&gt;L. corticicola&lt;/i&gt; show strongly corrosive organic acids such as dichloroacetic acid, which might be responsible for the biocorrosion of stone monuments.</t>
+          <t>Microorganisms developing in the liner of the spent fuel pool (SFP) and the fuel transfer channel (FTC) of a Nuclear Power Plant (NPP) can form high radiation resistant biofilms and cause corrosion. Due to difficulties and limitations to obtain large samples from SFP and FTC, cotton swabs were used to collect the biofilm from the wall of these installations. Molecular characterization was performed using massively parallel sequencing to obtain a taxonomic and functional gene classification. Also, samples from the drainage system were evaluated because microorganisms may travel over the 12-meter column of the pool water of the Brazilian Nuclear Power Plant (Angra1), which has been functioning since 1985. Regardless of the treatment of the pool water, our data reveal the unexpected presence of Fungi (Basidiomycota and Ascomycota) as the main contaminators of the SFP and FTC. Ustilaginomycetes (Basidiomycota) was the major class contributor (70%) in the SFP and FTC reflecting the little diversity in these sites; nevertheless, Proteobacteria, Actinobacteria, Firmicutes (Bacilli) were present in small proportions. Mapping total reads against six fungal reference genomes indicate that there is, in fact, a high abundance of fungal sequences in samples collected from SFP and FTC. Analysis of the ribosomal internal transcribed spacer (ITS) 1 and 2 regions and the protein found in the mitochondria of eukaryotic cells, cytochrome b (cytb) grouped our sample fungi in the clade 7 as Ustilago and Pseudozyma. In contrast, in the drainage system, Alphaproteobacteria were present in high abundances (55%). The presence of Sphingopyxis, Mesorhizobium, Erythrobacter, Sphingomonas, Novosphingobium, Sphingobium, Chelativorans, Oceanicaulis, Acidovorax, and Cyanobacteria was observed. Based on genomic annotation data, the assessment of the biological function found a higher proportion of protein-coding sequences related to respiration and protein metabolism in SFP and FTC samples. The knowledge of this biological inventory present in the system may contribute to further studies of potential microorganisms that might be useful for bioremediation of nuclear waste.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mycoplana</t>
+          <t>Oerskovia</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
@@ -1675,11 +1283,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nitratireductor</t>
+          <t>Opitutus</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
@@ -1687,11 +1295,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Oceaniovalibus</t>
+          <t>Oxobacter</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -1699,483 +1307,155 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peptoclostridium</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t>Paracoccus</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Zhao, W., et al. (2022). Employing conductive carrier for establishing spontaneous microbial galvanic cell and accelerating denitrification.. Journal of environmental management, 323, 116318.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>It is well-known that metal corrosion is accelerated by formation of galvanic cell. In this study, we reported the acceleration of denitrification by using conductive carrier through formation of microbial galvanic cell (MGC). Electrically conductive graphite plate (GP) was used as biofilm carrier and compared with the non-conductive polypropylene (PP) plate carrier. Cyclic voltametric analyses showed that biofilms with bidirectional electron transfer functions of bioelectrochemical denitrification (BEDN) and acetate oxidation could be enriched spontaneously onto the GP carrier, hinting the establishment of MGC. Further analysis using differential pulse voltammetry revealed that the redox mediator related to extracellular electron transfer was detected in both media of the GP and PP carrier. Microbial community analysis showed that the biofilms in both GP and PP carrier had identical microbial composition but varied in abundance. The genus of Comamonas, Pseudomonas, Paracoccus and Thauera were the dominance of electroactive denitrifiers responsible for BEDN in both the GP and PP carrier. The GP carrier had a 75.9% higher abundant enrichment of electroactive denitrifiers than the PP carrier. Denitrification performance analyses showed that the GP carrier had a denitrification rate constant (k&lt;sub&gt;DN&lt;/sub&gt;) of 1.25 and 2.66 h&lt;sup&gt;-1&lt;/sup&gt; at 15 °C and 30 °C, respectively, which was nearly 76.1% and 92.7% higher than the non-conductive PP carrier with corresponding values of about 0.71 and 1.38 h&lt;sup&gt;-1&lt;/sup&gt;. Further, the result of conductive carrier accelerating denitrification was confirmed in scaled-up denitrification bioreactors with volume of 104 L using brush-like biofilm carriers. The acceleration of denitrification was attributed to the spontaneously established MGC, which promoted the direct and mediated electron transfer of the electroactive denitrifiers grown onto the conductive carriers and speeded up the BEDN. The result of this study demonstrated that the BEDN could be integrated to traditional biological denitrification system to accelerate denitrification in the form of MGC by simply employment of conductive carrier.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Phenylobacterium</t>
+          <t>Prevotella</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Kalwasińska, A., Felföldi, T., Szabó, A., Deja-Sikora, E., Kosobucki, P. &amp; Walczak, M. (2017). Microbial communities associated with the anthropogenic, highly alkaline environment of a saline soda lime, Poland.. Antonie van Leeuwenhoek, 110(7), 945-962.</t>
+          <t>Jain, S., et al. (2020). Effects of multiple implantations of titanium healing abutments: Surface characteristics and microbial colonization.. Dental materials : official publication of the Academy of Dental Materials, 36(9), e279-e291.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Soda lime is a by-product of the Solvay soda process for the production of sodium carbonate from limestone and sodium chloride. Due to a high salt concentration and alkaline pH, the lime is considered as a potential habitat of haloalkaliphilic and haloalkalitolerant microbial communities. This artificial and unique environment is nutrient-poor and devoid of vegetation, due in part to semi-arid, saline and alkaline conditions. Samples taken from the surface layer of the lime and from the depth of 2 m (both having pH ~11 and EC&lt;sub&gt;e&lt;/sub&gt; up to 423 dS m&lt;sup&gt;-1&lt;/sup&gt;) were investigated using culture-based (culturing on alkaline medium) and culture-independent microbiological approaches (microscopic analyses and pyrosequencing). A surprisingly diverse bacterial community was discovered in this highly saline, alkaline and nutrient-poor environment, with the bacterial phyla Proteobacteria (representing 52.8% of the total bacterial community) and Firmicutes (16.6%) showing dominance. Compared to the surface layer, higher bacterial abundance and diversity values were detected in the deep zone, where more stable environmental conditions may occur. The surface layer was dominated by members of the genera Phenylobacterium, Chelativorans and Skermanella, while in the interior layer the genus Fictibacillus was dominant. The culturable aerobic, haloalkaliphilic bacteria strains isolated in this study belonged mostly to the genus Bacillus and were closely related to the species Bacillus pseudofirmus, B. cereus, B. plakortidis, B. thuringensis and B. pumilus.</t>
+          <t>Very few studies have investigated dental implant components involved in the early stage of healing, especially the implant healing abutment (IHA), despite its vital role in soft tissue contouring and shaping after implant placement. Although these components are labelled by the manufacturer for "single-use only," it is a common clinical practice to clean, sterilize, and reuse them.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Porphyromonas</t>
+          <t>Psb-m-3</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Bakri, H., Syed Abdul Rahman, S., Dol Bakri, Z., Munadziroh, E. &amp; Wan Harun, W. (2024). Antimicrobial activity of &lt;i&gt;Ruta angustifolia&lt;/i&gt; L. Pers against periodontal pathogen: &lt;i&gt;Porphyromonas gingivalis&lt;/i&gt;.. PeerJ, 12, e18751.</t>
+          <t>Pei, Y., Yu, Z., Ji, J., Khan, A. &amp; Li, X. (2018). Microbial Community Structure and Function Indicate the Severity of Chromium Contamination of the Yellow River.. Frontiers in microbiology, 9, 38.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Porphyromonas gingivalis&lt;/i&gt; is widely recognised as a periodontal pathogen. In recent years, there has been growing interest in the use of medicinal plant extracts as alternative treatments for periodontitis to combat the emergence of antibiotic-resistant bacteria. &lt;i&gt;Ruta angustifolia&lt;/i&gt; L. Pers has been traditionally used to treat various ailments, including oral bacterial infections. However, the antimicrobial potential of &lt;i&gt;R. angustifolia&lt;/i&gt; extracts against the periodontal pathogen &lt;i&gt;P. gingivalis&lt;/i&gt; remains unexplored. Hence, the aim of this study was to investigate the antimicrobial activity of &lt;i&gt;R. angustifolia&lt;/i&gt; extracts against &lt;i&gt;P. gingivalis&lt;/i&gt;.</t>
+          <t>The Yellow River is the most important water resource in northern China. In the recent past, heavy metal contamination has become severe due to industrial processes and other anthropogenic activities. In this study, riparian soil samples with varying levels of chromium (Cr) pollution severity were collected along the Gansu industrial reach of the Yellow River, including samples from uncontaminated sites (XC, XGU), slightly contaminated sites (LJX, XGD), and heavily contaminated sites (CG, XG). The Cr concentrations of these samples varied from 83.83 mg⋅kg&lt;sup&gt;-1&lt;/sup&gt; (XGU) to 506.58 mg⋅kg&lt;sup&gt;-1&lt;/sup&gt; (XG). The chromate [Cr (VI)] reducing ability in the soils collected in this study followed the sequence of the heavily contaminated &gt; slightly contaminated &gt; the un-contaminated. Common Cr remediation genes &lt;i&gt;chrA&lt;/i&gt; and &lt;i&gt;yieF&lt;/i&gt; were detected in the XG and CG samples. qRT-PCR results showed that the expression of &lt;i&gt;chrA&lt;/i&gt; was up-regulated four and threefold in XG and CG samples, respectively, whereas the expression of &lt;i&gt;yieF&lt;/i&gt; was up-regulated 66- and 7-fold in the same samples after 30 min treatment with Cr (VI). The copy numbers of &lt;i&gt;chrA&lt;/i&gt; and &lt;i&gt;yieF&lt;/i&gt; didn't change after 35 days incubation with Cr (VI). The microbial communities in the Cr contaminated sampling sites were different from those in the uncontaminated samples. Especially, the relative abundances of &lt;i&gt;Firmicutes&lt;/i&gt; and &lt;i&gt;Bacteroidetes&lt;/i&gt; were higher while &lt;i&gt;Actinobacteria&lt;/i&gt; was lower in the contaminated group than uncontaminated group. Further, potential indicator species, related to Cr such as Cr-remediation genera (&lt;i&gt;Geobacter, PSB-M-3, Flavobacterium&lt;/i&gt;, and &lt;i&gt;Methanosarcina&lt;/i&gt;); the Cr-sensitive genera (&lt;i&gt;Skermanella, Iamia, Arthrobacter&lt;/i&gt;, and &lt;i&gt;Candidatus Nitrososphaera&lt;/i&gt;) were also identified. These data revealed that Cr shifted microbial composition and function. Further, Cr (VI) reducing ability could be related with the expression of Cr remediation genes.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pseudoalteromonas</t>
+          <t>Pseudarthrobacter</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Yao, S., et al. (2024). The microbial communities of the rust layer were influenced by seawater microbial communities.. Biofouling, 40(10), 754-771.</t>
+          <t>Luo, Y., et al. (2024). Penicillium oxalicum SL2-enhanced nanoscale zero-valent iron effectively reduces Cr(VI) and shifts soil microbiota.. Journal of hazardous materials, 469, 134058.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>To reveal the responsible microorganisms of microbiologically-influenced-corrosion (MIC), using 16S rRNA and ITS sequencing techniques, we investigated the bacterial and fungal communities in rust layer and seawater. Results show that the corrosion-related genera of &lt;i&gt;Erythrobacter&lt;/i&gt;, &lt;i&gt;norank_f__Rhodothermaceae&lt;/i&gt;, and &lt;i&gt;Acinetobacter&lt;/i&gt; bacteria, as well as &lt;i&gt;Aspergillus&lt;/i&gt; fungi, were overrepresented in the rust layer, along with the &lt;i&gt;Pseudoalteromonas&lt;/i&gt; and &lt;i&gt;Marinobacterium&lt;/i&gt; bacteria in seawater, and &lt;i&gt;Ramlibacter&lt;/i&gt;, &lt;i&gt;Aquimarina&lt;/i&gt;, and &lt;i&gt;Williamsia&lt;/i&gt; bacteria were first detected in the rust layer. SourceTracker analysis revealed that approximately 23.08% of bacteria and 21.48% of fungi originated from seawater. Stochastic processes governed the rust layer and seawater microbial communities, and network analysis showed coexistence and interaction among bacterial and fungal communities. These results indicate that the composition of microbial communities in the rust layer was influenced by the marine environmental microbial communities, which can provide basic data support for the control of MIC in marine-related projects.</t>
+          <t>Most current researches focus solely on reducing soil chromium availability. It is difficult to reduce soil Cr(VI) concentration below 5.0 mg kg&lt;sup&gt;-1&lt;/sup&gt; using single remediation technology. This study introduced a sustainable soil Cr(VI) reduction and stabilization system, Penicillium oxalicum SL2-nanoscale zero-valent iron (nZVI), and investigated its effect on Cr(VI) reduction efficiency and microbial ecology. Results showed that P. oxalicum SL2-nZVI effectively reduced soil total Cr(VI) concentration from 187.1 to 3.4 mg kg&lt;sup&gt;-1&lt;/sup&gt; within 180 d, and remained relatively stable at 360 d. The growth curve of P. oxalicum SL2 and microbial community results indicated that γ-ray irradiation shortened the adaptation time of P. oxalicum SL2 and facilitated its colonization in soil. P. oxalicum SL2 colonization activated nZVI and its derivatives, and increased soil iron bioavailability. After restoration, the negative effect of Cr(VI) on soil microorganisms was markedly alleviated. Cr(VI), Fe(II), bioavailable Cr/Fe, Eh, EC and urease (SUE) were the key environmental factors of soil microbiota. Notably, Penicillium significantly stimulated the growth of urease-positive bacteria, Arthrobacter, Pseudarthrobacter, and Microvirga, synergistically reducing soil chromium availability. The combination of P. oxalicum SL2 and nZVI is expected to form a green, economical and long-lasting Cr(VI) reduction stabilization strategy.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rhodanobacter</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
+          <t>Pseudoalteromonas</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Yao, S., et al. (2024). The microbial communities of the rust layer were influenced by seawater microbial communities.. Biofouling, 40(10), 754-771.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>To reveal the responsible microorganisms of microbiologically-influenced-corrosion (MIC), using 16S rRNA and ITS sequencing techniques, we investigated the bacterial and fungal communities in rust layer and seawater. Results show that the corrosion-related genera of &lt;i&gt;Erythrobacter&lt;/i&gt;, &lt;i&gt;norank_f__Rhodothermaceae&lt;/i&gt;, and &lt;i&gt;Acinetobacter&lt;/i&gt; bacteria, as well as &lt;i&gt;Aspergillus&lt;/i&gt; fungi, were overrepresented in the rust layer, along with the &lt;i&gt;Pseudoalteromonas&lt;/i&gt; and &lt;i&gt;Marinobacterium&lt;/i&gt; bacteria in seawater, and &lt;i&gt;Ramlibacter&lt;/i&gt;, &lt;i&gt;Aquimarina&lt;/i&gt;, and &lt;i&gt;Williamsia&lt;/i&gt; bacteria were first detected in the rust layer. SourceTracker analysis revealed that approximately 23.08% of bacteria and 21.48% of fungi originated from seawater. Stochastic processes governed the rust layer and seawater microbial communities, and network analysis showed coexistence and interaction among bacterial and fungal communities. These results indicate that the composition of microbial communities in the rust layer was influenced by the marine environmental microbial communities, which can provide basic data support for the control of MIC in marine-related projects.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Roseococcus</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Ruiz-Lopez, S., Foster, L., Boothman, C., Cole, N., Morris, K. &amp; Lloyd, J. (2020). Identification of a Stable Hydrogen-Driven Microbiome in a Highly Radioactive Storage Facility on the Sellafield Site.. Frontiers in microbiology, 11, 587556.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>The use of nuclear power has been a significant part of the United Kingdom's energy portfolio with the Sellafield site being used for power production and more recently reprocessing and decommissioning of spent nuclear fuel activities. Before being reprocessed, spent nuclear fuel is stored in water ponds with significant levels of background radioactivity and in high alkalinity (to minimize fuel corrosion). Despite these challenging conditions, the presence of microbial communities has been detected. To gain further insight into the microbial communities present in extreme environments, an indoor, hyper-alkaline, oligotrophic, and radioactive spent fuel storage pond (INP) located on the Sellafield site was analyzed. Water samples were collected from sample points within the INP complex, and also the purge water feeding tank (FT) that supplies water to the pond, and were screened for the presence of the 16S and 18S rRNA genes to inform sequencing requirements over a period of 30 months. Only 16S rRNA genes were successfully amplified for sequencing, suggesting that the microbial communities in the INP were dominated by prokaryotes. Quantitative Polymerase Chain Reaction (qPCR) analysis targeting 16S rRNA genes suggested that bacterial cells in the order of 10&lt;sup&gt;4&lt;/sup&gt;-10&lt;sup&gt;6&lt;/sup&gt; mL&lt;sup&gt;-1&lt;/sup&gt; were present in the samples, with loadings rising with time. Next generation Illumina MiSeq sequencing was performed to identify the dominant microorganisms at eight sampling times. The 16S rRNA gene sequence analysis suggested that 70% and 91% from of the OTUs samples, from the FT and INP respectively, belonged to the phylum Proteobacteria, mainly from the alpha and beta subclasses. The remaining OTUs were assigned primarily to the phyla Acidobacteria, Bacteroidetes, and, Cyanobacteria. Overall the most abundant genera identified were &lt;i&gt;Hydrogenophaga&lt;/i&gt;, &lt;i&gt;Curvibacter&lt;/i&gt;, &lt;i&gt;Porphyrobacter&lt;/i&gt;, &lt;i&gt;Rhodoferax&lt;/i&gt;, &lt;i&gt;Polaromonas&lt;/i&gt;, &lt;i&gt;Sediminibacterium&lt;/i&gt;, &lt;i&gt;Roseococcus&lt;/i&gt;, and &lt;i&gt;Sphingomonas.&lt;/i&gt; The presence of organisms most closely related to &lt;i&gt;Hydrogenophaga&lt;/i&gt; species in the INP areas, suggests the metabolism of hydrogen as an energy source, most likely linked to hydrolysis of water caused by the stored fuel. Isolation of axenic cultures using a range of minimal and rich media was also attempted, but only relatively minor components (from the phylum Bacteroidetes) of the pond water communities were obtained, emphasizing the importance of DNA-based, not culture-dependent techniques, for assessing the microbiome of nuclear facilities.</t>
-        </is>
-      </c>
+          <t>Roseateles</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ruminococcaceae_ucg-005</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr"/>
-      <c r="D24" s="2" t="inlineStr"/>
+          <t>Streptococcus</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Hu, P., et al. (2024). Constructing two bifunctional tooth-targeting antimicrobial peptides for caries management: an in vitro study.. Clinical oral investigations, 29(1), 36.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Caries is a significant public health challenge. Herein, novel tooth-targeting antimicrobial peptides (HABPs@AMPs) were developed by combining the antimicrobial peptide DJK-5 with hydroxyapatite (HA) binding peptides, providing a potential new strategy for caries management.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>657</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shinella</t>
+          <t>Thiobacillus</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Wu, H., Yang, M., Tsui, T., Yin, Z. &amp; Yin, C. (2020). Comparative evaluation on the utilization of applied electrical potential in a conductive granule packed biotrickling filter for continuous abatement of xylene: Performance, limitation, and microbial community.. Journal of environmental management, 274, 111145.</t>
+          <t>Gutarowska, B., et al. (2019). New Sulfur Organic Polymer-Concrete Composites Containing Waste Materials: Mechanical Characteristics and Resistance to Biocorrosion.. Materials (Basel, Switzerland), 12(16).</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>This study investigates the use of electrically conductive granules as packing material in biotrickling filter (BTF) systems as to provide insights on the specific microbial abundance and functions during the treatment of xylene-containing waste gas. In addition, the effect of applied potential on attached biofilm on conductive granules during xylene degradation was briefly investigated. During stable operation period, the conductive granules packed BTF achieved reactor performance of no less than 80% with a maximum EC of 137.7 g/m&lt;sup&gt;3&lt;/sup&gt; h. Under applied potential of 1V, the BTF system showed deterioration of xylene removal by ranging from 21 to 76%, which also affected the distribution and relative abundance of the major microorganisms such as Xanthobacter, Acidovorax, Rhodococcus, Hydrogenophaga, Arthrobacter, Brevundimonas, Pseudoxanthomonas, Devosia, Shinella, Sphingobium, Dokdonella, Pseudomonas and Bosea. The acclimation of applied potential led to the enrichment of autotrophic bacteria and strains, which are correlated to improved nitrogen cycling. In general, applying electrical potential is feasible to shape the microbiological structure of biofilms to selectively adjust their biochemical functions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sphingosinicella</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="2" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Tepidimonas</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Thermus</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Qureshi, K., et al. (2022). In Vitro and In Silico Approaches for the Evaluation of Antimicrobial Activity, Time-Kill Kinetics, and Anti-Biofilm Potential of Thymoquinone (2-Methyl-5-propan-2-ylcyclohexa-2,5-diene-1,4-dione) against Selected Human Pathogens.. Antibiotics (Basel, Switzerland), 11(1).</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>Thymoquinone (2-methyl-5-propan-2-ylcyclohexa-2,5-diene-1,4-dione; TQ), a principal bioactive phytoconstituent of &lt;i&gt;Nigella sativa&lt;/i&gt; essential oil, has been reported to have high antimicrobial potential. Thus, the current study evaluated TQ's antimicrobial potential against a range of selected human pathogens using in vitro assays, including time-kill kinetics and anti-biofilm activity. In silico molecular docking of TQ against several antimicrobial target proteins and a detailed intermolecular interaction analysis was performed, including binding energies and docking feasibility. Of the tested bacteria and fungi, &lt;i&gt;S. epidermidis&lt;/i&gt; ATCC 12228 and &lt;i&gt;Candida albicans&lt;/i&gt; ATCC 10231 were the most susceptible to TQ, with 50.3 ± 0.3 mm and 21.1 ± 0.1 mm zones of inhibition, respectively. Minimum inhibitory concentration (MIC) values of TQ are in the range of 12.5-50 µg/mL, while minimum biocidal concentration (MBC) values are in the range of 25-100 µg/mL against the tested organisms. Time-kill kinetics of TQ revealed that the killing time for the tested bacteria is in the range of 1-6 h with the MBC of TQ. Anti-biofilm activity results demonstrate that the minimum biofilm inhibitory concentration (MBIC) values of TQ are in the range of 25-50 µg/mL, while the minimum biofilm eradication concentration (MBEC) values are in the range of 25-100 µg/mL, for the tested bacteria. In silico molecular docking studies revealed four preferred antibacterial and antifungal target proteins for TQ: D-alanyl-D-alanine synthetase (Ddl) from &lt;i&gt;Thermus thermophilus&lt;/i&gt;, transcriptional regulator qacR from &lt;i&gt;Staphylococcus aureus&lt;/i&gt;, N-myristoyltransferase from &lt;i&gt;Candida albicans&lt;/i&gt;, and NADPH-dependent D-xylose reductase from &lt;i&gt;Candida tenuis.&lt;/i&gt; In contrast, the nitroreductase family protein from &lt;i&gt;Bacillus cereus&lt;/i&gt; and spore coat polysaccharide biosynthesis protein from &lt;i&gt;Bacillus subtilis&lt;/i&gt; and UDP-N-acetylglucosamine pyrophosphorylase from &lt;i&gt;Aspergillus fumigatus&lt;/i&gt; are the least preferred antibacterial and antifungal target proteins for TQ, respectively. Molecular dynamics (MD) simulations revealed that TQ could bind to all four target proteins, with Ddl and NADPH-dependent D-xylose reductase being the most efficient. Our findings corroborate TQ's high antimicrobial potential, suggesting it may be a promising drug candidate for multi-drug resistant (MDR) pathogens, notably Gram-positive bacteria and &lt;i&gt;Candida albicans.&lt;/i&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Veillonella</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Calapa, K., et al. (2021). Hydrologic Alteration and Enhanced Microbial Reductive Dissolution of Fe(III) (hydr)oxides Under Flow Conditions in Fe(III)-Rich Rocks: Contribution to Cave-Forming Processes.. Frontiers in microbiology, 12, 696534.</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Previous work demonstrated that microbial Fe(III)-reduction contributes to void formation, and potentially cave formation within Fe(III)-rich rocks, such as banded iron formation (BIF), iron ore and canga (a surficial duricrust), based on field observations and static batch cultures. Microbiological Fe(III) reduction is often limited when biogenic Fe(II) passivates further Fe(III) reduction, although subsurface groundwater flow and the export of biogenic Fe(II) could alleviate this passivation process, and thus accelerate cave formation. Given that static batch cultures are unlikely to reflect the dynamics of groundwater flow conditions &lt;i&gt;in situ&lt;/i&gt;, we carried out comparative batch and column experiments to extend our understanding of the mass transport of iron and other solutes under flow conditions, and its effect on community structure dynamics and Fe(III)-reduction. A solution with chemistry approximating cave-associated porewater was amended with 5.0 mM lactate as a carbon source and added to columns packed with canga and inoculated with an assemblage of microorganisms associated with the interior of cave walls. Under anaerobic conditions, microbial Fe(III) reduction was enhanced in flow-through column incubations, compared to static batch incubations. During incubation, the microbial community profile in both batch culture and columns shifted from a Proteobacterial dominance to the Firmicutes, including Clostridiaceae, Peptococcaceae, and Veillonellaceae, the latter of which has not previously been shown to reduce Fe(III). The bacterial Fe(III) reduction altered the advective properties of canga-packed columns and enhanced permeability. Our results demonstrate that removing inhibitory Fe(II) via mimicking hydrologic flow of groundwater increases reduction rates and overall Fe-oxide dissolution, which in turn alters the hydrology of the Fe(III)-rich rocks. Our results also suggest that reductive weathering of Fe(III)-rich rocks such as canga, BIF, and iron ores may be more substantial than previously understood.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Xanthobacter</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Wu, H., Yang, M., Tsui, T., Yin, Z. &amp; Yin, C. (2020). Comparative evaluation on the utilization of applied electrical potential in a conductive granule packed biotrickling filter for continuous abatement of xylene: Performance, limitation, and microbial community.. Journal of environmental management, 274, 111145.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>This study investigates the use of electrically conductive granules as packing material in biotrickling filter (BTF) systems as to provide insights on the specific microbial abundance and functions during the treatment of xylene-containing waste gas. In addition, the effect of applied potential on attached biofilm on conductive granules during xylene degradation was briefly investigated. During stable operation period, the conductive granules packed BTF achieved reactor performance of no less than 80% with a maximum EC of 137.7 g/m&lt;sup&gt;3&lt;/sup&gt; h. Under applied potential of 1V, the BTF system showed deterioration of xylene removal by ranging from 21 to 76%, which also affected the distribution and relative abundance of the major microorganisms such as Xanthobacter, Acidovorax, Rhodococcus, Hydrogenophaga, Arthrobacter, Brevundimonas, Pseudoxanthomonas, Devosia, Shinella, Sphingobium, Dokdonella, Pseudomonas and Bosea. The acclimation of applied potential led to the enrichment of autotrophic bacteria and strains, which are correlated to improved nitrogen cycling. In general, applying electrical potential is feasible to shape the microbiological structure of biofilms to selectively adjust their biochemical functions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Xanthomonadaceae_bacterium_wwh73</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Chung, K., Fujiki, I. &amp; Okabe, S. (2011). Effect of formation of biofilms and chemical scale on the cathode electrode on the performance of a continuous two-chamber microbial fuel cell.. Bioresource technology, 102(1), 355-60.</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>A two-chamber MFC system was operated continuously for more than 500 days to evaluate effects of biofilm and chemical scale formation on the cathode electrode on power generation. A stable power density of 0.57 W/m(2) was attained after 200 days operation. However, the power density decreased drastically to 0.2 W/m(2) after the cathodic biofilm and chemical scale were removed. As the cathodic biofilm and chemical scale partially accumulated on the cathode, the power density gradually recovered with time. Microbial community structure of the cathodic biofilm was analyzed based on 16S rRNA clone libraries. The clones closely related to Xanthomonadaceae bacterium and Xanthomonas sp. in the Gammaproteobacteria subdivision were most frequently retrieved from the cathodic biofilm. Results of the SEM-EDX analysis revealed that the cation species (Na(+) and Ca(2+)) were main constituents of chemical scale, indicating that these cations diffused from the anode chamber through the Nafion membrane. However, an excess accumulation of the biofilm and chemical scale on the cathode exhibited adverse effects on the power generation due to a decrease in the active cathode surface area and an increase in diffusion resistance for oxygen. Thus, it is important to properly control the formation of chemical scale and biofilm on the cathode during long-term operation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Azospira</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Ahmad, H., et al. (2024). Metagenomic unveils the promotion of mainstream PD-anammox process at lower nZVI concentration and inhibition at higher dosage.. Bioresource technology, 408, 131168.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>The partial-denitrification-anammox (PdNA) process exhibits great potential in enabling the simultaneous removal of NO&lt;sub&gt;3&lt;/sub&gt;&lt;sup&gt;-&lt;/sup&gt;-N and NH&lt;sub&gt;4&lt;/sub&gt;&lt;sup&gt;+&lt;/sup&gt;-N. This study delved into the impact of exogenous nano zero-valent iron (nZVI) on the PdNA process. Adding 10 mg L&lt;sup&gt;-1&lt;/sup&gt; of nZVI increased nitrogen removal efficiency up to 83.12 % and maintained higher relative abundances of certain beneficial bacteria. The maximum relative abundance of Candidatus Brocadia (1.6 %), Candidatus Kuenenia (1.5 %), Ignavibacterium (1.3 %), and Azospira (1.2 %) was observed at 10 mg L&lt;sup&gt;-1&lt;/sup&gt; of nZVI. However, the greatest relative abundance of Thauera (1.3 %) was recorded under 50 mg L&lt;sup&gt;-1&lt;/sup&gt;. Moreover, applying nZVI selectively enhanced the abundance of NO&lt;sub&gt;3&lt;/sub&gt;&lt;sup&gt;-&lt;/sup&gt;-N reductase genes. So, keeping the nZVI concentration at 10 mg L&lt;sup&gt;-1&lt;/sup&gt; or below is advisable to ensure a stable PdNA process in mainstream conditions. Considering nitrogen removal efficiency, using nZVI in the PD-anammox process could be more cost-effective in enhancing its adoption in industrial and mainstream settings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Brachybacterium</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Bulleidia</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cellulosimicrobium</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Bharagava, R. &amp; Mishra, S. (2018). Hexavalent chromium reduction potential of Cellulosimicrobium sp. isolated from common effluent treatment plant of tannery industries.. Ecotoxicology and environmental safety, 147, 102-109.</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>Present study deals with the isolation and characterization of a bacterium capable for the effective reduction of Cr(VI) from tannery wastewater. Based on the 16S rRNA gene sequence analysis, this bacterium was identified as Cellulosimicrobium sp. (KX710177). During the Cr(VI) reduction experiment performed at 50, 100, 200,and 300mg/L of Cr(VI) concentrations, the bacterium showed 99.33% and 96.98% reduction at 50 and 100mg/L at 24 and 96h, respectively. However, at 200 and 300mg/L concentration of Cr(VI), only 84.62% and 62.28% reduction was achieved after 96h, respectively. The SEM analysis revealed that bacterial cells exposed to Cr(VI) showed increased cell size in comparison to unexposed cells, which might be due to either the precipitation or adsorption of reduced Cr(III) on bacterial cells. Further, the Energy Dispersive X-ray (EDX) analysis showed some chromium peaks for cells exposed to Cr(VI), which might be either due to the presence of precipitated reduced Cr(III) on cells or complexation of Cr(III) with cell surface molecules. The bacterium also showed resistance and sensitivity against the tested antibiotics with a wide range of MIC values ranging from 250 to 800mg/L for different heavy metals. Thus, this multi-drug and multi-metal resistant bacterium can be used as a potential agent for the effective bioremediation of metal contaminated sites.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Clostridium</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Ramos Monroy, O., Ruiz Ordaz, N., Hernández Gayosso, M., Juárez Ramírez, C. &amp; Galíndez Mayer, J. (2019). The corrosion process caused by the activity of the anaerobic sporulated bacterium Clostridium celerecrescens on API XL 52 steel.. Environmental science and pollution research international, 26(29), 29991-30002.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>The microbial corrosion of oil and gas pipes is one of the problems occurring in the oil industry. Various mechanisms explaining microbial corrosion have been demonstrated. Commonly, biocorrosion is attributed to sulfate-reducing bacteria. Also, it has recently been reported that microbial species can connect their electron transport system to metal electrodes. In this research, two spore-forming bacteria isolated in different years from a gas pipeline were identified by biochemical techniques and by 16S rDNA amplification, sequencing, and comparison with the NCBI database. Isolates were also compared between them using molecular techniques as the restriction patterns, unique for 16S rDNA (ARDRA), and the profile of the amplified bit from the genomic DNA, using an unspecific primer (RAPD). The results obtained showed that both isolates corresponded to Clostridium celerecrescens with a 99% similarity according to the sequence reported on the NCBI database. Also, the ARDRA and RAPD electrophoretic profiles of both strains were identical, and no plasmids were found in the strains. Thus, it can be settled that this bacterium is persistent in the environment prevailing in gas pipelines. Also, it was demonstrated that the bacterial secretion of organic acids contributes to the pitting and general biocorrosion of API XL 52 steel. The rates of corrosion obtained, approximately after 40 days, were correlated with the presence and metabolic activity of C. celerecrescens on the metallic surfaces.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Corynebacterium</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Aimo-Koivisto, E., Punakallio, L., Järvinen, R., Junnila, J., Grönthal, T. &amp; Rantala, M. (2024). A pilot study of antimicrobial effects and ototoxicity of a Norway spruce (Picea abies) resin-based canine otic rinse product.. Veterinary dermatology, 35(3), 325-336.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>Norway spruce (Picea abies) resin-based products are used in human medicine. A resin-based otic rinse also could be useful in supportive care of canine otitis externa (COE), yet information on its antimicrobial effect against canine pathogens or ototoxicity is lacking.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Halomonas</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Taghavi, S., Abbasi Montazeri, E., Zekavati, R., Roomiani, L. &amp; Saffarian, P. (2023). Identification of a New Compound (4-Fluoro-2-Trifluoromethyl Imidazole) Extracted from a New Halophilic &lt;i&gt;Bacillus aquimaris&lt;/i&gt; Strain Persiangulf TA2 Isolated from the Northern Persian Gulf with Broad-Spectrum Antimicrobial Effect.. Iranian journal of biotechnology, 21(4), e3359.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>The unique ecosystem of the Persian Gulf has made it a rich source of natural antimicrobial compounds produced by various microorganisms, especially bacteria, which can be used in the treatment of infectious diseases, especially those of drug-resistant microbes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Legionella</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Chen, Y., et al. (2024). Synergistic effects of ozonation pretreatment and trace phosphate on water quality health risk and microbial stability in simulated drinking water distribution systems.. Journal of hazardous materials, 485, 136913.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>The proliferation and chlorine resistance of pathogenic bacteria in drinking water distribution systems (DWDSs) pose a serious threat to human health. In this study, the synergistic effects of ozonation pretreatment and trace phosphate on water quality health risk and microbial stability were investigated in the small-scale DWDSs simulated by biofilms annular reactors with cast iron coupons. The results indicated that ozonation of drinking water containing trace phosphate was equivalent to increasing microbial carbon and phosphorus sources, further leading to the rapid proliferation of opportunistic pathogens (OPs) in subsequent DWDSs. Under the influent condition of ozonation pretreatment and 0.6 mg/L phosphate, the gene copy numbers of living Legionella spp., Mycobacterium spp., and Acanthamoeba spp. reached up to 1.50 × 10&lt;sup&gt;4&lt;/sup&gt;, 1.21 × 10&lt;sup&gt;4&lt;/sup&gt;, and 2.29 × 10&lt;sup&gt;4&lt;/sup&gt; gene copies/mL, respectively. The extracellular polymeric substances from suspended biofilms in DWDSs exhibited higher content, molecular weight, and flocculating efficiency, contributing to the improvement of microbial chlorine resistance. Meanwhile, more Fe&lt;sub&gt;3&lt;/sub&gt;O&lt;sub&gt;4&lt;/sub&gt; appeared in the corrosion products, which enhanced the extracellular electron transfer via cytochrome c and weakened the electrostatic repulsion between corrosion products and microbes in DWDSs. Finally, more active OP growth and microbial metabolic activity occurred in DWDSs. This study revealed that ozonation pretreatment and trace phosphate, as a green technology and an inconspicuous nutrient, respectively, can trigger significant microbial health risks in subsequent DWDSs. Therefore, the phosphate in drinking water should be more strictly restricted when ozonation technology is used in waterworks, especially without a biofiltration treatment process.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Mycoplana</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Oerskovia</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Oxobacter</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Paracoccus</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Zhao, W., et al. (2022). Employing conductive carrier for establishing spontaneous microbial galvanic cell and accelerating denitrification.. Journal of environmental management, 323, 116318.</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>It is well-known that metal corrosion is accelerated by formation of galvanic cell. In this study, we reported the acceleration of denitrification by using conductive carrier through formation of microbial galvanic cell (MGC). Electrically conductive graphite plate (GP) was used as biofilm carrier and compared with the non-conductive polypropylene (PP) plate carrier. Cyclic voltametric analyses showed that biofilms with bidirectional electron transfer functions of bioelectrochemical denitrification (BEDN) and acetate oxidation could be enriched spontaneously onto the GP carrier, hinting the establishment of MGC. Further analysis using differential pulse voltammetry revealed that the redox mediator related to extracellular electron transfer was detected in both media of the GP and PP carrier. Microbial community analysis showed that the biofilms in both GP and PP carrier had identical microbial composition but varied in abundance. The genus of Comamonas, Pseudomonas, Paracoccus and Thauera were the dominance of electroactive denitrifiers responsible for BEDN in both the GP and PP carrier. The GP carrier had a 75.9% higher abundant enrichment of electroactive denitrifiers than the PP carrier. Denitrification performance analyses showed that the GP carrier had a denitrification rate constant (k&lt;sub&gt;DN&lt;/sub&gt;) of 1.25 and 2.66 h&lt;sup&gt;-1&lt;/sup&gt; at 15 °C and 30 °C, respectively, which was nearly 76.1% and 92.7% higher than the non-conductive PP carrier with corresponding values of about 0.71 and 1.38 h&lt;sup&gt;-1&lt;/sup&gt;. Further, the result of conductive carrier accelerating denitrification was confirmed in scaled-up denitrification bioreactors with volume of 104 L using brush-like biofilm carriers. The acceleration of denitrification was attributed to the spontaneously established MGC, which promoted the direct and mediated electron transfer of the electroactive denitrifiers grown onto the conductive carriers and speeded up the BEDN. The result of this study demonstrated that the BEDN could be integrated to traditional biological denitrification system to accelerate denitrification in the form of MGC by simply employment of conductive carrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Psb-m-3</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Pei, Y., Yu, Z., Ji, J., Khan, A. &amp; Li, X. (2018). Microbial Community Structure and Function Indicate the Severity of Chromium Contamination of the Yellow River.. Frontiers in microbiology, 9, 38.</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>The Yellow River is the most important water resource in northern China. In the recent past, heavy metal contamination has become severe due to industrial processes and other anthropogenic activities. In this study, riparian soil samples with varying levels of chromium (Cr) pollution severity were collected along the Gansu industrial reach of the Yellow River, including samples from uncontaminated sites (XC, XGU), slightly contaminated sites (LJX, XGD), and heavily contaminated sites (CG, XG). The Cr concentrations of these samples varied from 83.83 mg⋅kg&lt;sup&gt;-1&lt;/sup&gt; (XGU) to 506.58 mg⋅kg&lt;sup&gt;-1&lt;/sup&gt; (XG). The chromate [Cr (VI)] reducing ability in the soils collected in this study followed the sequence of the heavily contaminated &gt; slightly contaminated &gt; the un-contaminated. Common Cr remediation genes &lt;i&gt;chrA&lt;/i&gt; and &lt;i&gt;yieF&lt;/i&gt; were detected in the XG and CG samples. qRT-PCR results showed that the expression of &lt;i&gt;chrA&lt;/i&gt; was up-regulated four and threefold in XG and CG samples, respectively, whereas the expression of &lt;i&gt;yieF&lt;/i&gt; was up-regulated 66- and 7-fold in the same samples after 30 min treatment with Cr (VI). The copy numbers of &lt;i&gt;chrA&lt;/i&gt; and &lt;i&gt;yieF&lt;/i&gt; didn't change after 35 days incubation with Cr (VI). The microbial communities in the Cr contaminated sampling sites were different from those in the uncontaminated samples. Especially, the relative abundances of &lt;i&gt;Firmicutes&lt;/i&gt; and &lt;i&gt;Bacteroidetes&lt;/i&gt; were higher while &lt;i&gt;Actinobacteria&lt;/i&gt; was lower in the contaminated group than uncontaminated group. Further, potential indicator species, related to Cr such as Cr-remediation genera (&lt;i&gt;Geobacter, PSB-M-3, Flavobacterium&lt;/i&gt;, and &lt;i&gt;Methanosarcina&lt;/i&gt;); the Cr-sensitive genera (&lt;i&gt;Skermanella, Iamia, Arthrobacter&lt;/i&gt;, and &lt;i&gt;Candidatus Nitrososphaera&lt;/i&gt;) were also identified. These data revealed that Cr shifted microbial composition and function. Further, Cr (VI) reducing ability could be related with the expression of Cr remediation genes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Pseudoalteromonas</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Yao, S., et al. (2024). The microbial communities of the rust layer were influenced by seawater microbial communities.. Biofouling, 40(10), 754-771.</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>To reveal the responsible microorganisms of microbiologically-influenced-corrosion (MIC), using 16S rRNA and ITS sequencing techniques, we investigated the bacterial and fungal communities in rust layer and seawater. Results show that the corrosion-related genera of &lt;i&gt;Erythrobacter&lt;/i&gt;, &lt;i&gt;norank_f__Rhodothermaceae&lt;/i&gt;, and &lt;i&gt;Acinetobacter&lt;/i&gt; bacteria, as well as &lt;i&gt;Aspergillus&lt;/i&gt; fungi, were overrepresented in the rust layer, along with the &lt;i&gt;Pseudoalteromonas&lt;/i&gt; and &lt;i&gt;Marinobacterium&lt;/i&gt; bacteria in seawater, and &lt;i&gt;Ramlibacter&lt;/i&gt;, &lt;i&gt;Aquimarina&lt;/i&gt;, and &lt;i&gt;Williamsia&lt;/i&gt; bacteria were first detected in the rust layer. SourceTracker analysis revealed that approximately 23.08% of bacteria and 21.48% of fungi originated from seawater. Stochastic processes governed the rust layer and seawater microbial communities, and network analysis showed coexistence and interaction among bacterial and fungal communities. These results indicate that the composition of microbial communities in the rust layer was influenced by the marine environmental microbial communities, which can provide basic data support for the control of MIC in marine-related projects.</t>
+          <t>The aim of this study was to develop new sulfur-copolymer concrete composites using waste compounds that have good mechanical characteristics and show a resistance to biocorrosion. The comonomers used to synthesize the sulfur-organic copolymers were-90 wt. % sulfur; 5 wt. % dicyclopentadiene (DCPD); 5 wt. % organic monomers, styrene (SDS), 1-decene (SDD), turpentine (SDT), and furfural (SDF). The concrete composites based on sulfur-organic copolymers were filled with aggregates, sand, gravel, as well as additives and industrial waste such as fly ash or phosphogypsum. The sulfur-organic copolymers were found to be chemically stable (softening temperature, thermal stability, melting temperature, amount of recrystallized sulfur, and shore D hardness). Partial replacement of DCPD with other organic comonomers did not change the thermal stability markedly but did make the copolymers more elastic. However, the materials became significantly stiffer after repeated melting. All the tested copolymers were found to be resistant to microbial corrosion. The highest resistance was exhibited by the SDS-containing polymer, while the SDF polymer exhibited the greatest change due to the activity of the microorganisms (FTIR analysis and sulfur crystallization). The concrete composites with sulfur-organic copolymers containing DCPD, SDS, SDF, fly ash, and phosphogypsum were mechanically resistant to compression and stretching, had low water absorbance, and were resistant to factors, such as temperature and salt. Resistance to freezing and thawing (150 cycles) was not confirmed. The concrete composites with sulfur-organic copolymers showed resistance to bacterial growth and acid activity during 8 weeks of incubation with microorganisms. No significant structural changes were observed in the SDS composites after incubation with bacteria, whereas composites containing SDF showed slight changes (FTIR and microscopic analysis). The concrete composite containing sulfur, DCPD, SDS, sand, gravel, and fly ash was the most resistant to microbiological corrosion, based on the metabolic activity of the bacteria and the production of ergosterol by the molds after eight weeks of incubation. It was found that &lt;i&gt;Thiobacillus thioparus&lt;/i&gt; was the first of the acidifying bacteria to colonize the sulfur concrete, decreasing the pH of the environment. The molds &lt;i&gt;Penicillium chrysogenum&lt;/i&gt;, &lt;i&gt;Aspergillus versicolor&lt;/i&gt; and &lt;i&gt;Cladosporium herbarum&lt;/i&gt; were able to grow on the surface of the tested composites only in the presence of an organic carbon source (glucose). During incubation, they produced organic acids and acidified the environment. However, no morphological changes in the concretes were observed suggesting that sulfur-organic copolymers containing styrene could be used as engineering materials or be applied as binders in sulfur-concretes.</t>
         </is>
       </c>
     </row>
